--- a/shiny_app/raw_data/responses_3.xlsx
+++ b/shiny_app/raw_data/responses_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemcphie/Desktop/Gov_50/Projects/Social_Connections_2024/shiny_app/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26FD7CC-01EA-4A46-91C9-7CB3E7E328FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914063B2-7340-7740-8054-FCD178386073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8283" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8283" uniqueCount="1313">
   <si>
     <t>name</t>
   </si>
@@ -1897,9 +1897,6 @@
     <t>Zoie Freier</t>
   </si>
   <si>
-    <t>a combination of two</t>
-  </si>
-  <si>
     <t>Daylyn Gilbert</t>
   </si>
   <si>
@@ -2521,9 +2518,6 @@
     <t>Blake Koerber</t>
   </si>
   <si>
-    <t>I was on campus for a month then came home</t>
-  </si>
-  <si>
     <t>Max Keck</t>
   </si>
   <si>
@@ -3359,9 +3353,6 @@
   </si>
   <si>
     <t>Ben Freudenberg</t>
-  </si>
-  <si>
-    <t>Lived on campus for 2 weeks and I now live at home in the US</t>
   </si>
   <si>
     <t>Ellie Ashby</t>
@@ -3984,20 +3975,24 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4270,8 +4265,8 @@
   </sheetPr>
   <dimension ref="A1:Z394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I65" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89"/>
+    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -14768,7 +14763,7 @@
         <v>27</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>625</v>
+        <v>246</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>60</v>
@@ -14789,7 +14784,7 @@
         <v>63</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>65</v>
@@ -14798,7 +14793,7 @@
         <v>5</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>49</v>
@@ -14816,7 +14811,7 @@
         <v>5</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T132" s="2" t="s">
         <v>65</v>
@@ -14842,7 +14837,7 @@
     </row>
     <row r="133" spans="1:26" ht="13">
       <c r="A133" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>27</v>
@@ -14887,7 +14882,7 @@
         <v>3</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q133" s="2" t="s">
         <v>49</v>
@@ -14914,7 +14909,7 @@
         <v>28</v>
       </c>
       <c r="Y133" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Z133" s="2" t="s">
         <v>91</v>
@@ -14922,7 +14917,7 @@
     </row>
     <row r="134" spans="1:26" ht="13">
       <c r="A134" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>27</v>
@@ -14949,7 +14944,7 @@
         <v>63</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>49</v>
@@ -14958,7 +14953,7 @@
         <v>4</v>
       </c>
       <c r="M134" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N134" s="2" t="s">
         <v>49</v>
@@ -14967,7 +14962,7 @@
         <v>5</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>98</v>
@@ -14976,7 +14971,7 @@
         <v>4</v>
       </c>
       <c r="S134" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T134" s="2" t="s">
         <v>95</v>
@@ -14994,7 +14989,7 @@
         <v>28</v>
       </c>
       <c r="Y134" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Z134" s="2" t="s">
         <v>42</v>
@@ -15056,7 +15051,7 @@
         <v>2</v>
       </c>
       <c r="S135" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T135" s="2" t="s">
         <v>33</v>
@@ -15109,7 +15104,7 @@
         <v>68</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>65</v>
@@ -15118,7 +15113,7 @@
         <v>4</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N136" s="2" t="s">
         <v>51</v>
@@ -15216,7 +15211,7 @@
         <v>5</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="T137" s="5" t="s">
         <v>33</v>
@@ -15234,7 +15229,7 @@
         <v>230</v>
       </c>
       <c r="Y137" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Z137" s="2" t="s">
         <v>81</v>
@@ -15242,7 +15237,7 @@
     </row>
     <row r="138" spans="1:26" ht="13">
       <c r="A138" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>27</v>
@@ -15269,7 +15264,7 @@
         <v>49</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>49</v>
@@ -15278,7 +15273,7 @@
         <v>3</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>49</v>
@@ -15287,7 +15282,7 @@
         <v>3</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q138" s="5" t="s">
         <v>33</v>
@@ -15296,7 +15291,7 @@
         <v>4</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="T138" s="5" t="s">
         <v>33</v>
@@ -15314,7 +15309,7 @@
         <v>230</v>
       </c>
       <c r="Y138" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Z138" s="2" t="s">
         <v>42</v>
@@ -15349,7 +15344,7 @@
         <v>33</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>68</v>
@@ -15367,7 +15362,7 @@
         <v>4</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="Q139" s="2" t="s">
         <v>98</v>
@@ -15429,7 +15424,7 @@
         <v>68</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>98</v>
@@ -15438,7 +15433,7 @@
         <v>4</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>51</v>
@@ -15447,7 +15442,7 @@
         <v>5</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q140" s="2" t="s">
         <v>49</v>
@@ -15456,7 +15451,7 @@
         <v>3</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T140" s="2" t="s">
         <v>65</v>
@@ -15474,7 +15469,7 @@
         <v>89</v>
       </c>
       <c r="Y140" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Z140" s="2" t="s">
         <v>91</v>
@@ -15509,7 +15504,7 @@
         <v>51</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>33</v>
@@ -15518,7 +15513,7 @@
         <v>5</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N141" s="2" t="s">
         <v>51</v>
@@ -15527,7 +15522,7 @@
         <v>4</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q141" s="2" t="s">
         <v>49</v>
@@ -15536,7 +15531,7 @@
         <v>3</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="T141" s="2" t="s">
         <v>124</v>
@@ -15562,7 +15557,7 @@
     </row>
     <row r="142" spans="1:26" ht="13">
       <c r="A142" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>27</v>
@@ -15589,7 +15584,7 @@
         <v>63</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>51</v>
@@ -15598,7 +15593,7 @@
         <v>5</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>68</v>
@@ -15607,7 +15602,7 @@
         <v>4</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q142" s="2" t="s">
         <v>68</v>
@@ -15616,7 +15611,7 @@
         <v>5</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T142" s="2" t="s">
         <v>49</v>
@@ -15634,7 +15629,7 @@
         <v>40</v>
       </c>
       <c r="Y142" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Z142" s="2" t="s">
         <v>57</v>
@@ -15642,7 +15637,7 @@
     </row>
     <row r="143" spans="1:26" ht="13">
       <c r="A143" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>27</v>
@@ -15678,7 +15673,7 @@
         <v>4</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>98</v>
@@ -15696,7 +15691,7 @@
         <v>3</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="T143" s="2" t="s">
         <v>98</v>
@@ -15714,7 +15709,7 @@
         <v>40</v>
       </c>
       <c r="Y143" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z143" s="2" t="s">
         <v>42</v>
@@ -15758,7 +15753,7 @@
         <v>3</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N144" s="2" t="s">
         <v>124</v>
@@ -15767,7 +15762,7 @@
         <v>3</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q144" s="2" t="s">
         <v>105</v>
@@ -15802,7 +15797,7 @@
     </row>
     <row r="145" spans="1:26" ht="13">
       <c r="A145" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>27</v>
@@ -15829,7 +15824,7 @@
         <v>68</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K145" s="5" t="s">
         <v>51</v>
@@ -15838,7 +15833,7 @@
         <v>5</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>51</v>
@@ -15847,7 +15842,7 @@
         <v>4</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q145" s="2" t="s">
         <v>68</v>
@@ -15856,7 +15851,7 @@
         <v>5</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T145" s="2" t="s">
         <v>98</v>
@@ -15882,7 +15877,7 @@
     </row>
     <row r="146" spans="1:26" ht="13">
       <c r="A146" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>27</v>
@@ -15909,7 +15904,7 @@
         <v>49</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>131</v>
@@ -15918,7 +15913,7 @@
         <v>2</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>33</v>
@@ -15936,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="T146" s="2" t="s">
         <v>51</v>
@@ -15962,7 +15957,7 @@
     </row>
     <row r="147" spans="1:26" ht="13">
       <c r="A147" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>27</v>
@@ -15998,7 +15993,7 @@
         <v>5</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>98</v>
@@ -16007,7 +16002,7 @@
         <v>4</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Q147" s="2" t="s">
         <v>49</v>
@@ -16016,7 +16011,7 @@
         <v>4</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T147" s="2" t="s">
         <v>49</v>
@@ -16054,7 +16049,7 @@
         <v>45</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>176</v>
@@ -16087,7 +16082,7 @@
         <v>2</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q148" s="2" t="s">
         <v>37</v>
@@ -16096,7 +16091,7 @@
         <v>2</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="T148" s="2" t="s">
         <v>131</v>
@@ -16114,7 +16109,7 @@
         <v>45</v>
       </c>
       <c r="Y148" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z148" s="2" t="s">
         <v>73</v>
@@ -16149,7 +16144,7 @@
         <v>98</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>98</v>
@@ -16158,7 +16153,7 @@
         <v>5</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N149" s="2" t="s">
         <v>49</v>
@@ -16167,7 +16162,7 @@
         <v>5</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q149" s="2" t="s">
         <v>98</v>
@@ -16202,7 +16197,7 @@
     </row>
     <row r="150" spans="1:26" ht="13">
       <c r="A150" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>27</v>
@@ -16229,7 +16224,7 @@
         <v>63</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>98</v>
@@ -16238,7 +16233,7 @@
         <v>5</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N150" s="2" t="s">
         <v>95</v>
@@ -16247,7 +16242,7 @@
         <v>5</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>68</v>
@@ -16256,7 +16251,7 @@
         <v>4</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="T150" s="2" t="s">
         <v>95</v>
@@ -16274,7 +16269,7 @@
         <v>237</v>
       </c>
       <c r="Y150" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z150" s="2" t="s">
         <v>81</v>
@@ -16282,7 +16277,7 @@
     </row>
     <row r="151" spans="1:26" ht="13">
       <c r="A151" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>27</v>
@@ -16309,7 +16304,7 @@
         <v>49</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>49</v>
@@ -16318,7 +16313,7 @@
         <v>5</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>68</v>
@@ -16327,7 +16322,7 @@
         <v>3</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q151" s="2" t="s">
         <v>68</v>
@@ -16336,7 +16331,7 @@
         <v>4</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="T151" s="2" t="s">
         <v>124</v>
@@ -16354,7 +16349,7 @@
         <v>28</v>
       </c>
       <c r="Y151" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Z151" s="2" t="s">
         <v>57</v>
@@ -16398,7 +16393,7 @@
         <v>4</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N152" s="5" t="s">
         <v>95</v>
@@ -16416,7 +16411,7 @@
         <v>4</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T152" s="2" t="s">
         <v>68</v>
@@ -16442,7 +16437,7 @@
     </row>
     <row r="153" spans="1:26" ht="13">
       <c r="A153" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>27</v>
@@ -16469,7 +16464,7 @@
         <v>98</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>98</v>
@@ -16478,7 +16473,7 @@
         <v>4</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N153" s="2" t="s">
         <v>98</v>
@@ -16487,7 +16482,7 @@
         <v>3</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="Q153" s="2" t="s">
         <v>98</v>
@@ -16496,7 +16491,7 @@
         <v>3</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="T153" s="2" t="s">
         <v>68</v>
@@ -16522,7 +16517,7 @@
     </row>
     <row r="154" spans="1:26" ht="13">
       <c r="A154" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>27</v>
@@ -16567,7 +16562,7 @@
         <v>4</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Q154" s="2" t="s">
         <v>51</v>
@@ -16576,7 +16571,7 @@
         <v>4</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T154" s="2" t="s">
         <v>51</v>
@@ -16629,7 +16624,7 @@
         <v>49</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>68</v>
@@ -16656,7 +16651,7 @@
         <v>3</v>
       </c>
       <c r="S155" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="T155" s="2" t="s">
         <v>98</v>
@@ -16674,7 +16669,7 @@
         <v>154</v>
       </c>
       <c r="Y155" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Z155" s="2" t="s">
         <v>91</v>
@@ -16709,7 +16704,7 @@
         <v>98</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>98</v>
@@ -16718,7 +16713,7 @@
         <v>4</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N156" s="2" t="s">
         <v>98</v>
@@ -16727,7 +16722,7 @@
         <v>4</v>
       </c>
       <c r="P156" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q156" s="2" t="s">
         <v>98</v>
@@ -16736,7 +16731,7 @@
         <v>4</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="T156" s="2" t="s">
         <v>98</v>
@@ -16762,7 +16757,7 @@
     </row>
     <row r="157" spans="1:26" ht="13">
       <c r="A157" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>27</v>
@@ -16798,7 +16793,7 @@
         <v>5</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N157" s="2" t="s">
         <v>51</v>
@@ -16816,7 +16811,7 @@
         <v>4</v>
       </c>
       <c r="S157" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="T157" s="2" t="s">
         <v>51</v>
@@ -16842,7 +16837,7 @@
     </row>
     <row r="158" spans="1:26" ht="13">
       <c r="A158" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>27</v>
@@ -16869,7 +16864,7 @@
         <v>33</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>49</v>
@@ -16878,7 +16873,7 @@
         <v>3</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>95</v>
@@ -16887,7 +16882,7 @@
         <v>4</v>
       </c>
       <c r="P158" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="Q158" s="2" t="s">
         <v>95</v>
@@ -16896,7 +16891,7 @@
         <v>4</v>
       </c>
       <c r="S158" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T158" s="2" t="s">
         <v>131</v>
@@ -16922,7 +16917,7 @@
     </row>
     <row r="159" spans="1:26" ht="13">
       <c r="A159" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>27</v>
@@ -16949,7 +16944,7 @@
         <v>68</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>49</v>
@@ -16967,7 +16962,7 @@
         <v>4</v>
       </c>
       <c r="P159" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="Q159" s="2" t="s">
         <v>346</v>
@@ -16976,7 +16971,7 @@
         <v>4</v>
       </c>
       <c r="S159" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="T159" s="2" t="s">
         <v>68</v>
@@ -17002,7 +16997,7 @@
     </row>
     <row r="160" spans="1:26" ht="13">
       <c r="A160" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>27</v>
@@ -17047,7 +17042,7 @@
         <v>4</v>
       </c>
       <c r="P160" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Q160" s="2" t="s">
         <v>49</v>
@@ -17074,7 +17069,7 @@
         <v>89</v>
       </c>
       <c r="Y160" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Z160" s="2" t="s">
         <v>91</v>
@@ -17082,7 +17077,7 @@
     </row>
     <row r="161" spans="1:26" ht="13">
       <c r="A161" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>27</v>
@@ -17109,7 +17104,7 @@
         <v>33</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>33</v>
@@ -17118,7 +17113,7 @@
         <v>4</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N161" s="2" t="s">
         <v>33</v>
@@ -17136,7 +17131,7 @@
         <v>4</v>
       </c>
       <c r="S161" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T161" s="2" t="s">
         <v>33</v>
@@ -17154,7 +17149,7 @@
         <v>154</v>
       </c>
       <c r="Y161" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Z161" s="2" t="s">
         <v>42</v>
@@ -17162,7 +17157,7 @@
     </row>
     <row r="162" spans="1:26" ht="13">
       <c r="A162" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>27</v>
@@ -17177,7 +17172,7 @@
         <v>30</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>139</v>
@@ -17189,7 +17184,7 @@
         <v>68</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>68</v>
@@ -17198,7 +17193,7 @@
         <v>4</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="N162" s="5" t="s">
         <v>95</v>
@@ -17216,7 +17211,7 @@
         <v>4</v>
       </c>
       <c r="S162" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="T162" s="2" t="s">
         <v>68</v>
@@ -17242,7 +17237,7 @@
     </row>
     <row r="163" spans="1:26" ht="13">
       <c r="A163" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>27</v>
@@ -17269,7 +17264,7 @@
         <v>63</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>105</v>
@@ -17278,7 +17273,7 @@
         <v>4</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>105</v>
@@ -17287,7 +17282,7 @@
         <v>4</v>
       </c>
       <c r="P163" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q163" s="2" t="s">
         <v>95</v>
@@ -17296,7 +17291,7 @@
         <v>4</v>
       </c>
       <c r="S163" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="T163" s="2" t="s">
         <v>68</v>
@@ -17314,7 +17309,7 @@
         <v>154</v>
       </c>
       <c r="Y163" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Z163" s="2" t="s">
         <v>57</v>
@@ -17322,7 +17317,7 @@
     </row>
     <row r="164" spans="1:26" ht="13">
       <c r="A164" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>27</v>
@@ -17438,7 +17433,7 @@
         <v>5</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N165" s="2" t="s">
         <v>49</v>
@@ -17447,7 +17442,7 @@
         <v>3</v>
       </c>
       <c r="P165" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q165" s="2" t="s">
         <v>51</v>
@@ -17474,7 +17469,7 @@
         <v>40</v>
       </c>
       <c r="Y165" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Z165" s="2" t="s">
         <v>81</v>
@@ -17482,7 +17477,7 @@
     </row>
     <row r="166" spans="1:26" ht="13">
       <c r="A166" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>101</v>
@@ -17527,7 +17522,7 @@
         <v>4</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q166" s="2" t="s">
         <v>51</v>
@@ -17536,7 +17531,7 @@
         <v>4</v>
       </c>
       <c r="S166" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="T166" s="2" t="s">
         <v>98</v>
@@ -17562,7 +17557,7 @@
     </row>
     <row r="167" spans="1:26" ht="13">
       <c r="A167" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>27</v>
@@ -17589,7 +17584,7 @@
         <v>124</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>51</v>
@@ -17598,7 +17593,7 @@
         <v>2</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N167" s="2" t="s">
         <v>124</v>
@@ -17616,7 +17611,7 @@
         <v>3</v>
       </c>
       <c r="S167" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="T167" s="2" t="s">
         <v>105</v>
@@ -17642,7 +17637,7 @@
     </row>
     <row r="168" spans="1:26" ht="13">
       <c r="A168" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>27</v>
@@ -17678,7 +17673,7 @@
         <v>5</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="N168" s="2" t="s">
         <v>98</v>
@@ -17722,7 +17717,7 @@
     </row>
     <row r="169" spans="1:26" ht="13">
       <c r="A169" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>27</v>
@@ -17749,7 +17744,7 @@
         <v>63</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>49</v>
@@ -17776,7 +17771,7 @@
         <v>3</v>
       </c>
       <c r="S169" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="T169" s="2" t="s">
         <v>68</v>
@@ -17802,7 +17797,7 @@
     </row>
     <row r="170" spans="1:26" ht="13">
       <c r="A170" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>27</v>
@@ -17829,7 +17824,7 @@
         <v>68</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>98</v>
@@ -17838,7 +17833,7 @@
         <v>4</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N170" s="2" t="s">
         <v>95</v>
@@ -17856,7 +17851,7 @@
         <v>3</v>
       </c>
       <c r="S170" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="T170" s="2" t="s">
         <v>51</v>
@@ -17874,7 +17869,7 @@
         <v>40</v>
       </c>
       <c r="Y170" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Z170" s="2" t="s">
         <v>42</v>
@@ -17882,7 +17877,7 @@
     </row>
     <row r="171" spans="1:26" ht="13">
       <c r="A171" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>27</v>
@@ -17936,7 +17931,7 @@
         <v>4</v>
       </c>
       <c r="S171" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T171" s="2" t="s">
         <v>95</v>
@@ -17962,7 +17957,7 @@
     </row>
     <row r="172" spans="1:26" ht="13">
       <c r="A172" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>27</v>
@@ -17989,7 +17984,7 @@
         <v>63</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>49</v>
@@ -17998,7 +17993,7 @@
         <v>2</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N172" s="2" t="s">
         <v>49</v>
@@ -18007,7 +18002,7 @@
         <v>2</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q172" s="2" t="s">
         <v>68</v>
@@ -18016,7 +18011,7 @@
         <v>1</v>
       </c>
       <c r="S172" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="T172" s="2" t="s">
         <v>33</v>
@@ -18034,7 +18029,7 @@
         <v>89</v>
       </c>
       <c r="Y172" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Z172" s="2" t="s">
         <v>91</v>
@@ -18069,7 +18064,7 @@
         <v>49</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>131</v>
@@ -18087,7 +18082,7 @@
         <v>3</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q173" s="2" t="s">
         <v>131</v>
@@ -18114,7 +18109,7 @@
         <v>45</v>
       </c>
       <c r="Y173" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Z173" s="2" t="s">
         <v>42</v>
@@ -18122,7 +18117,7 @@
     </row>
     <row r="174" spans="1:26" ht="13">
       <c r="A174" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>27</v>
@@ -18158,7 +18153,7 @@
         <v>5</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N174" s="2" t="s">
         <v>65</v>
@@ -18167,7 +18162,7 @@
         <v>4</v>
       </c>
       <c r="P174" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q174" s="2" t="s">
         <v>65</v>
@@ -18176,7 +18171,7 @@
         <v>4</v>
       </c>
       <c r="S174" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="T174" s="2" t="s">
         <v>68</v>
@@ -18202,7 +18197,7 @@
     </row>
     <row r="175" spans="1:26" ht="13">
       <c r="A175" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>101</v>
@@ -18229,7 +18224,7 @@
         <v>68</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>49</v>
@@ -18238,7 +18233,7 @@
         <v>4</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N175" s="2" t="s">
         <v>51</v>
@@ -18247,7 +18242,7 @@
         <v>5</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Q175" s="2" t="s">
         <v>68</v>
@@ -18256,7 +18251,7 @@
         <v>4</v>
       </c>
       <c r="S175" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="T175" s="2" t="s">
         <v>65</v>
@@ -18274,7 +18269,7 @@
         <v>237</v>
       </c>
       <c r="Y175" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Z175" s="2" t="s">
         <v>81</v>
@@ -18282,7 +18277,7 @@
     </row>
     <row r="176" spans="1:26" ht="13">
       <c r="A176" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>27</v>
@@ -18309,7 +18304,7 @@
         <v>63</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>49</v>
@@ -18318,7 +18313,7 @@
         <v>4</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="N176" s="2" t="s">
         <v>65</v>
@@ -18336,7 +18331,7 @@
         <v>4</v>
       </c>
       <c r="S176" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T176" s="2" t="s">
         <v>65</v>
@@ -18362,7 +18357,7 @@
     </row>
     <row r="177" spans="1:26" ht="13">
       <c r="A177" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>27</v>
@@ -18398,7 +18393,7 @@
         <v>3</v>
       </c>
       <c r="M177" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="N177" s="2" t="s">
         <v>37</v>
@@ -18407,7 +18402,7 @@
         <v>1</v>
       </c>
       <c r="P177" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="Q177" s="2" t="s">
         <v>65</v>
@@ -18434,7 +18429,7 @@
         <v>71</v>
       </c>
       <c r="Y177" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Z177" s="2" t="s">
         <v>73</v>
@@ -18442,7 +18437,7 @@
     </row>
     <row r="178" spans="1:26" ht="13">
       <c r="A178" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>27</v>
@@ -18469,7 +18464,7 @@
         <v>49</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>49</v>
@@ -18522,7 +18517,7 @@
     </row>
     <row r="179" spans="1:26" ht="13">
       <c r="A179" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>27</v>
@@ -18549,7 +18544,7 @@
         <v>49</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>65</v>
@@ -18558,7 +18553,7 @@
         <v>3</v>
       </c>
       <c r="M179" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N179" s="2" t="s">
         <v>105</v>
@@ -18602,7 +18597,7 @@
     </row>
     <row r="180" spans="1:26" ht="13">
       <c r="A180" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>27</v>
@@ -18638,7 +18633,7 @@
         <v>4</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="N180" s="2" t="s">
         <v>98</v>
@@ -18647,7 +18642,7 @@
         <v>3</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q180" s="5" t="s">
         <v>37</v>
@@ -18656,7 +18651,7 @@
         <v>3</v>
       </c>
       <c r="S180" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="T180" s="2" t="s">
         <v>37</v>
@@ -18674,7 +18669,7 @@
         <v>45</v>
       </c>
       <c r="Y180" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="Z180" s="2" t="s">
         <v>91</v>
@@ -18682,7 +18677,7 @@
     </row>
     <row r="181" spans="1:26" ht="13">
       <c r="A181" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>27</v>
@@ -18718,7 +18713,7 @@
         <v>4</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N181" s="2" t="s">
         <v>124</v>
@@ -18727,7 +18722,7 @@
         <v>4</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Q181" s="2" t="s">
         <v>95</v>
@@ -18736,7 +18731,7 @@
         <v>4</v>
       </c>
       <c r="S181" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="T181" s="2" t="s">
         <v>124</v>
@@ -18754,7 +18749,7 @@
         <v>154</v>
       </c>
       <c r="Y181" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Z181" s="2" t="s">
         <v>91</v>
@@ -18789,7 +18784,7 @@
         <v>63</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>49</v>
@@ -18807,7 +18802,7 @@
         <v>5</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="Q182" s="2" t="s">
         <v>68</v>
@@ -18842,7 +18837,7 @@
     </row>
     <row r="183" spans="1:26" ht="13">
       <c r="A183" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>101</v>
@@ -18869,7 +18864,7 @@
         <v>49</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K183" s="2" t="s">
         <v>49</v>
@@ -18878,7 +18873,7 @@
         <v>4</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="N183" s="2" t="s">
         <v>68</v>
@@ -18887,7 +18882,7 @@
         <v>3</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Q183" s="2" t="s">
         <v>98</v>
@@ -18896,7 +18891,7 @@
         <v>3</v>
       </c>
       <c r="S183" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="T183" s="2" t="s">
         <v>124</v>
@@ -18914,7 +18909,7 @@
         <v>154</v>
       </c>
       <c r="Y183" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Z183" s="2" t="s">
         <v>57</v>
@@ -18922,7 +18917,7 @@
     </row>
     <row r="184" spans="1:26" ht="13">
       <c r="A184" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>27</v>
@@ -18949,7 +18944,7 @@
         <v>98</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>49</v>
@@ -18958,7 +18953,7 @@
         <v>4</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N184" s="2" t="s">
         <v>49</v>
@@ -18976,7 +18971,7 @@
         <v>1</v>
       </c>
       <c r="S184" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="T184" s="2" t="s">
         <v>33</v>
@@ -18994,7 +18989,7 @@
         <v>45</v>
       </c>
       <c r="Y184" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Z184" s="2" t="s">
         <v>73</v>
@@ -19002,7 +18997,7 @@
     </row>
     <row r="185" spans="1:26" ht="13">
       <c r="A185" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>27</v>
@@ -19038,7 +19033,7 @@
         <v>4</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N185" s="2" t="s">
         <v>98</v>
@@ -19056,7 +19051,7 @@
         <v>4</v>
       </c>
       <c r="S185" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="T185" s="2" t="s">
         <v>68</v>
@@ -19136,7 +19131,7 @@
         <v>1</v>
       </c>
       <c r="S186" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="T186" s="2" t="s">
         <v>51</v>
@@ -19162,7 +19157,7 @@
     </row>
     <row r="187" spans="1:26" ht="13">
       <c r="A187" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>101</v>
@@ -19189,7 +19184,7 @@
         <v>49</v>
       </c>
       <c r="J187" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K187" s="5" t="s">
         <v>33</v>
@@ -19269,7 +19264,7 @@
         <v>49</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K188" s="2" t="s">
         <v>49</v>
@@ -19278,7 +19273,7 @@
         <v>3</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N188" s="2" t="s">
         <v>98</v>
@@ -19322,7 +19317,7 @@
     </row>
     <row r="189" spans="1:26" ht="13">
       <c r="A189" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>101</v>
@@ -19349,7 +19344,7 @@
         <v>68</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>98</v>
@@ -19358,7 +19353,7 @@
         <v>4</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N189" s="2" t="s">
         <v>65</v>
@@ -19367,7 +19362,7 @@
         <v>3</v>
       </c>
       <c r="P189" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Q189" s="2" t="s">
         <v>68</v>
@@ -19376,7 +19371,7 @@
         <v>2</v>
       </c>
       <c r="S189" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="T189" s="2" t="s">
         <v>51</v>
@@ -19394,7 +19389,7 @@
         <v>154</v>
       </c>
       <c r="Y189" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="Z189" s="2" t="s">
         <v>91</v>
@@ -19447,7 +19442,7 @@
         <v>3</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q190" s="2" t="s">
         <v>65</v>
@@ -19456,7 +19451,7 @@
         <v>2</v>
       </c>
       <c r="S190" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="T190" s="2" t="s">
         <v>65</v>
@@ -19509,7 +19504,7 @@
         <v>33</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K191" s="2" t="s">
         <v>49</v>
@@ -19527,7 +19522,7 @@
         <v>4</v>
       </c>
       <c r="P191" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Q191" s="2" t="s">
         <v>105</v>
@@ -19536,7 +19531,7 @@
         <v>4</v>
       </c>
       <c r="S191" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="T191" s="2" t="s">
         <v>105</v>
@@ -19607,7 +19602,7 @@
         <v>4</v>
       </c>
       <c r="P192" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q192" s="2" t="s">
         <v>98</v>
@@ -19616,7 +19611,7 @@
         <v>4</v>
       </c>
       <c r="S192" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="T192" s="2" t="s">
         <v>37</v>
@@ -19634,7 +19629,7 @@
         <v>40</v>
       </c>
       <c r="Y192" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Z192" s="2" t="s">
         <v>42</v>
@@ -19642,7 +19637,7 @@
     </row>
     <row r="193" spans="1:26" ht="13">
       <c r="A193" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>27</v>
@@ -19669,7 +19664,7 @@
         <v>63</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K193" s="2" t="s">
         <v>49</v>
@@ -19678,7 +19673,7 @@
         <v>3</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="N193" s="2" t="s">
         <v>95</v>
@@ -19687,7 +19682,7 @@
         <v>4</v>
       </c>
       <c r="P193" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Q193" s="2" t="s">
         <v>95</v>
@@ -19696,7 +19691,7 @@
         <v>4</v>
       </c>
       <c r="S193" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="T193" s="2" t="s">
         <v>95</v>
@@ -19714,7 +19709,7 @@
         <v>71</v>
       </c>
       <c r="Y193" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Z193" s="2" t="s">
         <v>42</v>
@@ -19722,13 +19717,13 @@
     </row>
     <row r="194" spans="1:26" ht="13">
       <c r="A194" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>833</v>
+        <v>246</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>60</v>
@@ -19749,7 +19744,7 @@
         <v>49</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K194" s="2" t="s">
         <v>49</v>
@@ -19758,7 +19753,7 @@
         <v>3</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="N194" s="2" t="s">
         <v>49</v>
@@ -19767,7 +19762,7 @@
         <v>4</v>
       </c>
       <c r="P194" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="Q194" s="2" t="s">
         <v>68</v>
@@ -19776,7 +19771,7 @@
         <v>2</v>
       </c>
       <c r="S194" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="T194" s="2" t="s">
         <v>68</v>
@@ -19794,7 +19789,7 @@
         <v>40</v>
       </c>
       <c r="Y194" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="Z194" s="2" t="s">
         <v>57</v>
@@ -19802,7 +19797,7 @@
     </row>
     <row r="195" spans="1:26" ht="13">
       <c r="A195" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>27</v>
@@ -19838,7 +19833,7 @@
         <v>3</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="N195" s="2" t="s">
         <v>51</v>
@@ -19847,7 +19842,7 @@
         <v>2</v>
       </c>
       <c r="P195" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="Q195" s="2" t="s">
         <v>49</v>
@@ -19882,7 +19877,7 @@
     </row>
     <row r="196" spans="1:26" ht="13">
       <c r="A196" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>101</v>
@@ -19909,7 +19904,7 @@
         <v>33</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="K196" s="2" t="s">
         <v>65</v>
@@ -19918,7 +19913,7 @@
         <v>4</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="N196" s="2" t="s">
         <v>37</v>
@@ -19936,7 +19931,7 @@
         <v>3</v>
       </c>
       <c r="S196" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="T196" s="2" t="s">
         <v>49</v>
@@ -19962,7 +19957,7 @@
     </row>
     <row r="197" spans="1:26" ht="13">
       <c r="A197" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>27</v>
@@ -19989,7 +19984,7 @@
         <v>131</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="K197" s="2" t="s">
         <v>131</v>
@@ -19998,7 +19993,7 @@
         <v>4</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="N197" s="2" t="s">
         <v>124</v>
@@ -20007,7 +20002,7 @@
         <v>4</v>
       </c>
       <c r="P197" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="Q197" s="2" t="s">
         <v>124</v>
@@ -20016,7 +20011,7 @@
         <v>4</v>
       </c>
       <c r="S197" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="T197" s="2" t="s">
         <v>105</v>
@@ -20034,7 +20029,7 @@
         <v>45</v>
       </c>
       <c r="Y197" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="Z197" s="2" t="s">
         <v>57</v>
@@ -20042,7 +20037,7 @@
     </row>
     <row r="198" spans="1:26" ht="13">
       <c r="A198" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>27</v>
@@ -20069,7 +20064,7 @@
         <v>63</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K198" s="2" t="s">
         <v>65</v>
@@ -20078,7 +20073,7 @@
         <v>4</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="N198" s="2" t="s">
         <v>65</v>
@@ -20087,7 +20082,7 @@
         <v>3</v>
       </c>
       <c r="P198" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="Q198" s="2" t="s">
         <v>49</v>
@@ -20096,7 +20091,7 @@
         <v>3</v>
       </c>
       <c r="S198" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="T198" s="2" t="s">
         <v>65</v>
@@ -20114,7 +20109,7 @@
         <v>28</v>
       </c>
       <c r="Y198" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="Z198" s="2" t="s">
         <v>42</v>
@@ -20122,7 +20117,7 @@
     </row>
     <row r="199" spans="1:26" ht="13">
       <c r="A199" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>27</v>
@@ -20158,7 +20153,7 @@
         <v>4</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="N199" s="2" t="s">
         <v>51</v>
@@ -20167,7 +20162,7 @@
         <v>3</v>
       </c>
       <c r="P199" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="Q199" s="2" t="s">
         <v>65</v>
@@ -20176,7 +20171,7 @@
         <v>4</v>
       </c>
       <c r="S199" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="T199" s="2" t="s">
         <v>65</v>
@@ -20202,7 +20197,7 @@
     </row>
     <row r="200" spans="1:26" ht="13">
       <c r="A200" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>27</v>
@@ -20238,7 +20233,7 @@
         <v>1</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N200" s="2" t="s">
         <v>65</v>
@@ -20247,7 +20242,7 @@
         <v>1</v>
       </c>
       <c r="P200" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="Q200" s="2" t="s">
         <v>65</v>
@@ -20265,7 +20260,7 @@
         <v>1</v>
       </c>
       <c r="V200" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="W200" s="6">
         <v>0</v>
@@ -20282,7 +20277,7 @@
     </row>
     <row r="201" spans="1:26" ht="13">
       <c r="A201" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>27</v>
@@ -20309,7 +20304,7 @@
         <v>33</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="K201" s="2" t="s">
         <v>33</v>
@@ -20362,7 +20357,7 @@
     </row>
     <row r="202" spans="1:26" ht="13">
       <c r="A202" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>27</v>
@@ -20389,7 +20384,7 @@
         <v>49</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K202" s="2" t="s">
         <v>49</v>
@@ -20398,7 +20393,7 @@
         <v>4</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="N202" s="2" t="s">
         <v>95</v>
@@ -20416,7 +20411,7 @@
         <v>4</v>
       </c>
       <c r="S202" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="T202" s="2" t="s">
         <v>131</v>
@@ -20442,7 +20437,7 @@
     </row>
     <row r="203" spans="1:26" ht="13">
       <c r="A203" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>27</v>
@@ -20469,7 +20464,7 @@
         <v>63</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K203" s="2" t="s">
         <v>98</v>
@@ -20478,7 +20473,7 @@
         <v>5</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N203" s="2" t="s">
         <v>65</v>
@@ -20496,7 +20491,7 @@
         <v>4</v>
       </c>
       <c r="S203" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="T203" s="2" t="s">
         <v>65</v>
@@ -20522,7 +20517,7 @@
     </row>
     <row r="204" spans="1:26" ht="13">
       <c r="A204" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>101</v>
@@ -20549,7 +20544,7 @@
         <v>33</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="K204" s="2" t="s">
         <v>33</v>
@@ -20558,7 +20553,7 @@
         <v>4</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N204" s="2" t="s">
         <v>33</v>
@@ -20567,7 +20562,7 @@
         <v>4</v>
       </c>
       <c r="P204" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="Q204" s="2" t="s">
         <v>33</v>
@@ -20576,7 +20571,7 @@
         <v>4</v>
       </c>
       <c r="S204" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="T204" s="2" t="s">
         <v>33</v>
@@ -20602,7 +20597,7 @@
     </row>
     <row r="205" spans="1:26" ht="13">
       <c r="A205" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>27</v>
@@ -20629,7 +20624,7 @@
         <v>124</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K205" s="2" t="s">
         <v>49</v>
@@ -20638,7 +20633,7 @@
         <v>5</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N205" s="2" t="s">
         <v>124</v>
@@ -20647,7 +20642,7 @@
         <v>5</v>
       </c>
       <c r="P205" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="Q205" s="2" t="s">
         <v>124</v>
@@ -20656,7 +20651,7 @@
         <v>4</v>
       </c>
       <c r="S205" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="T205" s="2" t="s">
         <v>33</v>
@@ -20682,7 +20677,7 @@
     </row>
     <row r="206" spans="1:26" ht="13">
       <c r="A206" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>27</v>
@@ -20709,7 +20704,7 @@
         <v>51</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K206" s="2" t="s">
         <v>51</v>
@@ -20718,7 +20713,7 @@
         <v>5</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N206" s="2" t="s">
         <v>51</v>
@@ -20727,7 +20722,7 @@
         <v>5</v>
       </c>
       <c r="P206" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="Q206" s="2" t="s">
         <v>51</v>
@@ -20754,7 +20749,7 @@
         <v>45</v>
       </c>
       <c r="Y206" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="Z206" s="2" t="s">
         <v>57</v>
@@ -20762,7 +20757,7 @@
     </row>
     <row r="207" spans="1:26" ht="13">
       <c r="A207" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>27</v>
@@ -20807,7 +20802,7 @@
         <v>5</v>
       </c>
       <c r="P207" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="Q207" s="2" t="s">
         <v>51</v>
@@ -20816,7 +20811,7 @@
         <v>5</v>
       </c>
       <c r="S207" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T207" s="2" t="s">
         <v>37</v>
@@ -20887,7 +20882,7 @@
         <v>3</v>
       </c>
       <c r="P208" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="Q208" s="2" t="s">
         <v>37</v>
@@ -20896,7 +20891,7 @@
         <v>3</v>
       </c>
       <c r="S208" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="T208" s="2" t="s">
         <v>37</v>
@@ -20937,7 +20932,7 @@
         <v>30</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>48</v>
@@ -20958,7 +20953,7 @@
         <v>4</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N209" s="2" t="s">
         <v>33</v>
@@ -20967,7 +20962,7 @@
         <v>4</v>
       </c>
       <c r="P209" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Q209" s="2" t="s">
         <v>95</v>
@@ -21002,7 +20997,7 @@
     </row>
     <row r="210" spans="1:26" ht="13">
       <c r="A210" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>27</v>
@@ -21029,7 +21024,7 @@
         <v>49</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K210" s="2" t="s">
         <v>49</v>
@@ -21038,7 +21033,7 @@
         <v>4</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="N210" s="2" t="s">
         <v>98</v>
@@ -21047,7 +21042,7 @@
         <v>5</v>
       </c>
       <c r="P210" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="Q210" s="2" t="s">
         <v>49</v>
@@ -21056,7 +21051,7 @@
         <v>4</v>
       </c>
       <c r="S210" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T210" s="2" t="s">
         <v>49</v>
@@ -21082,7 +21077,7 @@
     </row>
     <row r="211" spans="1:26" ht="13">
       <c r="A211" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>27</v>
@@ -21118,7 +21113,7 @@
         <v>5</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="N211" s="2" t="s">
         <v>98</v>
@@ -21127,7 +21122,7 @@
         <v>5</v>
       </c>
       <c r="P211" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Q211" s="2" t="s">
         <v>95</v>
@@ -21136,7 +21131,7 @@
         <v>4</v>
       </c>
       <c r="S211" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="T211" s="2" t="s">
         <v>124</v>
@@ -21162,7 +21157,7 @@
     </row>
     <row r="212" spans="1:26" ht="13">
       <c r="A212" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>27</v>
@@ -21189,7 +21184,7 @@
         <v>124</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="K212" s="2" t="s">
         <v>49</v>
@@ -21198,7 +21193,7 @@
         <v>2</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N212" s="2" t="s">
         <v>124</v>
@@ -21207,7 +21202,7 @@
         <v>2</v>
       </c>
       <c r="P212" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="Q212" s="2" t="s">
         <v>37</v>
@@ -21216,7 +21211,7 @@
         <v>3</v>
       </c>
       <c r="S212" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="T212" s="2" t="s">
         <v>37</v>
@@ -21242,7 +21237,7 @@
     </row>
     <row r="213" spans="1:26" ht="13">
       <c r="A213" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>27</v>
@@ -21269,7 +21264,7 @@
         <v>49</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K213" s="2" t="s">
         <v>49</v>
@@ -21278,7 +21273,7 @@
         <v>3</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N213" s="2" t="s">
         <v>49</v>
@@ -21287,7 +21282,7 @@
         <v>2</v>
       </c>
       <c r="P213" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="Q213" s="2" t="s">
         <v>105</v>
@@ -21296,7 +21291,7 @@
         <v>1</v>
       </c>
       <c r="S213" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="T213" s="2" t="s">
         <v>37</v>
@@ -21322,7 +21317,7 @@
     </row>
     <row r="214" spans="1:26" ht="13">
       <c r="A214" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>27</v>
@@ -21349,7 +21344,7 @@
         <v>68</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K214" s="2" t="s">
         <v>65</v>
@@ -21358,7 +21353,7 @@
         <v>4</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="N214" s="2" t="s">
         <v>68</v>
@@ -21367,7 +21362,7 @@
         <v>3</v>
       </c>
       <c r="P214" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Q214" s="2" t="s">
         <v>68</v>
@@ -21376,7 +21371,7 @@
         <v>3</v>
       </c>
       <c r="S214" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="T214" s="2" t="s">
         <v>68</v>
@@ -21429,7 +21424,7 @@
         <v>124</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K215" s="2" t="s">
         <v>105</v>
@@ -21447,7 +21442,7 @@
         <v>2</v>
       </c>
       <c r="P215" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="Q215" s="2" t="s">
         <v>37</v>
@@ -21482,7 +21477,7 @@
     </row>
     <row r="216" spans="1:26" ht="13">
       <c r="A216" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>27</v>
@@ -21509,7 +21504,7 @@
         <v>63</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K216" s="2" t="s">
         <v>65</v>
@@ -21518,7 +21513,7 @@
         <v>5</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="N216" s="2" t="s">
         <v>105</v>
@@ -21536,7 +21531,7 @@
         <v>3</v>
       </c>
       <c r="S216" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="T216" s="2" t="s">
         <v>124</v>
@@ -21554,7 +21549,7 @@
         <v>40</v>
       </c>
       <c r="Y216" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="Z216" s="2" t="s">
         <v>57</v>
@@ -21562,7 +21557,7 @@
     </row>
     <row r="217" spans="1:26" ht="13">
       <c r="A217" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>27</v>
@@ -21589,7 +21584,7 @@
         <v>124</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K217" s="2" t="s">
         <v>124</v>
@@ -21607,7 +21602,7 @@
         <v>3</v>
       </c>
       <c r="P217" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="Q217" s="2" t="s">
         <v>98</v>
@@ -21634,7 +21629,7 @@
         <v>230</v>
       </c>
       <c r="Y217" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Z217" s="2" t="s">
         <v>91</v>
@@ -21642,7 +21637,7 @@
     </row>
     <row r="218" spans="1:26" ht="13">
       <c r="A218" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>27</v>
@@ -21669,7 +21664,7 @@
         <v>124</v>
       </c>
       <c r="J218" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K218" s="2" t="s">
         <v>98</v>
@@ -21678,7 +21673,7 @@
         <v>5</v>
       </c>
       <c r="M218" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="N218" s="2" t="s">
         <v>124</v>
@@ -21714,7 +21709,7 @@
         <v>89</v>
       </c>
       <c r="Y218" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Z218" s="2" t="s">
         <v>81</v>
@@ -21758,7 +21753,7 @@
         <v>4</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="N219" s="2" t="s">
         <v>95</v>
@@ -21794,7 +21789,7 @@
         <v>230</v>
       </c>
       <c r="Y219" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Z219" s="2" t="s">
         <v>42</v>
@@ -21802,7 +21797,7 @@
     </row>
     <row r="220" spans="1:26" ht="13">
       <c r="A220" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>27</v>
@@ -21847,7 +21842,7 @@
         <v>4</v>
       </c>
       <c r="P220" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="Q220" s="2" t="s">
         <v>98</v>
@@ -21856,7 +21851,7 @@
         <v>3</v>
       </c>
       <c r="S220" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="T220" s="2" t="s">
         <v>131</v>
@@ -21882,7 +21877,7 @@
     </row>
     <row r="221" spans="1:26" ht="13">
       <c r="A221" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>27</v>
@@ -21909,7 +21904,7 @@
         <v>124</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K221" s="2" t="s">
         <v>49</v>
@@ -21918,7 +21913,7 @@
         <v>2</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="N221" s="2" t="s">
         <v>124</v>
@@ -21927,7 +21922,7 @@
         <v>4</v>
       </c>
       <c r="P221" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="Q221" s="2" t="s">
         <v>124</v>
@@ -21936,7 +21931,7 @@
         <v>2</v>
       </c>
       <c r="S221" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="T221" s="2" t="s">
         <v>131</v>
@@ -21962,7 +21957,7 @@
     </row>
     <row r="222" spans="1:26" ht="13">
       <c r="A222" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>27</v>
@@ -21989,7 +21984,7 @@
         <v>49</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="K222" s="2" t="s">
         <v>49</v>
@@ -21998,7 +21993,7 @@
         <v>4</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N222" s="2" t="s">
         <v>98</v>
@@ -22007,7 +22002,7 @@
         <v>3</v>
       </c>
       <c r="P222" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="Q222" s="2" t="s">
         <v>98</v>
@@ -22069,7 +22064,7 @@
         <v>63</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K223" s="2" t="s">
         <v>124</v>
@@ -22122,7 +22117,7 @@
     </row>
     <row r="224" spans="1:26" ht="13">
       <c r="A224" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>27</v>
@@ -22149,7 +22144,7 @@
         <v>98</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="K224" s="2" t="s">
         <v>98</v>
@@ -22158,7 +22153,7 @@
         <v>5</v>
       </c>
       <c r="M224" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="N224" s="2" t="s">
         <v>65</v>
@@ -22202,7 +22197,7 @@
     </row>
     <row r="225" spans="1:26" ht="13">
       <c r="A225" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>27</v>
@@ -22229,7 +22224,7 @@
         <v>63</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="K225" s="2" t="s">
         <v>98</v>
@@ -22238,7 +22233,7 @@
         <v>5</v>
       </c>
       <c r="M225" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="N225" s="2" t="s">
         <v>65</v>
@@ -22247,7 +22242,7 @@
         <v>5</v>
       </c>
       <c r="P225" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Q225" s="2" t="s">
         <v>49</v>
@@ -22282,7 +22277,7 @@
     </row>
     <row r="226" spans="1:26" ht="13">
       <c r="A226" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>27</v>
@@ -22309,7 +22304,7 @@
         <v>63</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="K226" s="2" t="s">
         <v>49</v>
@@ -22318,7 +22313,7 @@
         <v>4</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="N226" s="2" t="s">
         <v>68</v>
@@ -22327,7 +22322,7 @@
         <v>4</v>
       </c>
       <c r="P226" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="Q226" s="2" t="s">
         <v>68</v>
@@ -22336,7 +22331,7 @@
         <v>4</v>
       </c>
       <c r="S226" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="T226" s="2" t="s">
         <v>49</v>
@@ -22354,7 +22349,7 @@
         <v>28</v>
       </c>
       <c r="Y226" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Z226" s="2" t="s">
         <v>42</v>
@@ -22416,7 +22411,7 @@
         <v>4</v>
       </c>
       <c r="S227" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="T227" s="2" t="s">
         <v>68</v>
@@ -22522,7 +22517,7 @@
     </row>
     <row r="229" spans="1:26" ht="13">
       <c r="A229" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>27</v>
@@ -22549,7 +22544,7 @@
         <v>63</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="K229" s="2" t="s">
         <v>98</v>
@@ -22558,7 +22553,7 @@
         <v>5</v>
       </c>
       <c r="M229" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="N229" s="2" t="s">
         <v>98</v>
@@ -22567,7 +22562,7 @@
         <v>5</v>
       </c>
       <c r="P229" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="Q229" s="2" t="s">
         <v>98</v>
@@ -22576,7 +22571,7 @@
         <v>3</v>
       </c>
       <c r="S229" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="T229" s="2" t="s">
         <v>98</v>
@@ -22602,7 +22597,7 @@
     </row>
     <row r="230" spans="1:26" ht="13">
       <c r="A230" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>27</v>
@@ -22629,7 +22624,7 @@
         <v>33</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K230" s="2" t="s">
         <v>33</v>
@@ -22647,7 +22642,7 @@
         <v>3</v>
       </c>
       <c r="P230" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Q230" s="2" t="s">
         <v>33</v>
@@ -22656,7 +22651,7 @@
         <v>3</v>
       </c>
       <c r="S230" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="T230" s="2" t="s">
         <v>49</v>
@@ -22718,7 +22713,7 @@
         <v>4</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="N231" s="2" t="s">
         <v>105</v>
@@ -22727,7 +22722,7 @@
         <v>4</v>
       </c>
       <c r="P231" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="Q231" s="2" t="s">
         <v>105</v>
@@ -22762,7 +22757,7 @@
     </row>
     <row r="232" spans="1:26" ht="13">
       <c r="A232" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>27</v>
@@ -22789,7 +22784,7 @@
         <v>51</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K232" s="2" t="s">
         <v>37</v>
@@ -22798,7 +22793,7 @@
         <v>3</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="N232" s="2" t="s">
         <v>37</v>
@@ -22807,7 +22802,7 @@
         <v>3</v>
       </c>
       <c r="P232" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="Q232" s="2" t="s">
         <v>105</v>
@@ -22816,7 +22811,7 @@
         <v>3</v>
       </c>
       <c r="S232" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="T232" s="2" t="s">
         <v>98</v>
@@ -22842,7 +22837,7 @@
     </row>
     <row r="233" spans="1:26" ht="13">
       <c r="A233" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>101</v>
@@ -22869,7 +22864,7 @@
         <v>63</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="K233" s="2" t="s">
         <v>33</v>
@@ -22887,7 +22882,7 @@
         <v>3</v>
       </c>
       <c r="P233" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="Q233" s="2" t="s">
         <v>33</v>
@@ -22896,7 +22891,7 @@
         <v>3</v>
       </c>
       <c r="S233" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="T233" s="2" t="s">
         <v>33</v>
@@ -22949,7 +22944,7 @@
         <v>63</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K234" s="2" t="s">
         <v>33</v>
@@ -22958,7 +22953,7 @@
         <v>5</v>
       </c>
       <c r="M234" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="N234" s="2" t="s">
         <v>33</v>
@@ -23002,7 +22997,7 @@
     </row>
     <row r="235" spans="1:26" ht="13">
       <c r="A235" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>27</v>
@@ -23029,7 +23024,7 @@
         <v>63</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="K235" s="2" t="s">
         <v>51</v>
@@ -23038,7 +23033,7 @@
         <v>5</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="N235" s="2" t="s">
         <v>65</v>
@@ -23047,7 +23042,7 @@
         <v>4</v>
       </c>
       <c r="P235" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="Q235" s="2" t="s">
         <v>65</v>
@@ -23056,7 +23051,7 @@
         <v>4</v>
       </c>
       <c r="S235" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="T235" s="2" t="s">
         <v>33</v>
@@ -23082,7 +23077,7 @@
     </row>
     <row r="236" spans="1:26" ht="13">
       <c r="A236" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>27</v>
@@ -23109,7 +23104,7 @@
         <v>49</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K236" s="2" t="s">
         <v>68</v>
@@ -23118,7 +23113,7 @@
         <v>5</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="N236" s="2" t="s">
         <v>49</v>
@@ -23127,7 +23122,7 @@
         <v>5</v>
       </c>
       <c r="P236" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="Q236" s="2" t="s">
         <v>98</v>
@@ -23136,7 +23131,7 @@
         <v>4</v>
       </c>
       <c r="S236" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="T236" s="2" t="s">
         <v>95</v>
@@ -23162,7 +23157,7 @@
     </row>
     <row r="237" spans="1:26" ht="13">
       <c r="A237" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>27</v>
@@ -23189,7 +23184,7 @@
         <v>49</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="K237" s="2" t="s">
         <v>49</v>
@@ -23198,7 +23193,7 @@
         <v>3</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="N237" s="2" t="s">
         <v>95</v>
@@ -23234,7 +23229,7 @@
         <v>28</v>
       </c>
       <c r="Y237" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Z237" s="2" t="s">
         <v>73</v>
@@ -23278,7 +23273,7 @@
         <v>4</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="N238" s="2" t="s">
         <v>49</v>
@@ -23287,7 +23282,7 @@
         <v>3</v>
       </c>
       <c r="P238" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="Q238" s="2" t="s">
         <v>65</v>
@@ -23296,7 +23291,7 @@
         <v>2</v>
       </c>
       <c r="S238" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="T238" s="2" t="s">
         <v>98</v>
@@ -23322,7 +23317,7 @@
     </row>
     <row r="239" spans="1:26" ht="13">
       <c r="A239" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>27</v>
@@ -23349,7 +23344,7 @@
         <v>68</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="K239" s="2" t="s">
         <v>98</v>
@@ -23358,7 +23353,7 @@
         <v>4</v>
       </c>
       <c r="M239" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="N239" s="2" t="s">
         <v>68</v>
@@ -23367,7 +23362,7 @@
         <v>3</v>
       </c>
       <c r="P239" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="Q239" s="2" t="s">
         <v>33</v>
@@ -23376,7 +23371,7 @@
         <v>3</v>
       </c>
       <c r="S239" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="T239" s="2" t="s">
         <v>68</v>
@@ -23402,7 +23397,7 @@
     </row>
     <row r="240" spans="1:26" ht="13">
       <c r="A240" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>27</v>
@@ -23429,7 +23424,7 @@
         <v>33</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="K240" s="2" t="s">
         <v>65</v>
@@ -23438,7 +23433,7 @@
         <v>5</v>
       </c>
       <c r="M240" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="N240" s="2" t="s">
         <v>65</v>
@@ -23482,7 +23477,7 @@
     </row>
     <row r="241" spans="1:26" ht="13">
       <c r="A241" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>27</v>
@@ -23509,7 +23504,7 @@
         <v>63</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="K241" s="2" t="s">
         <v>49</v>
@@ -23527,7 +23522,7 @@
         <v>4</v>
       </c>
       <c r="P241" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="Q241" s="2" t="s">
         <v>65</v>
@@ -23536,7 +23531,7 @@
         <v>4</v>
       </c>
       <c r="S241" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="T241" s="2" t="s">
         <v>65</v>
@@ -23562,7 +23557,7 @@
     </row>
     <row r="242" spans="1:26" ht="13">
       <c r="A242" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>27</v>
@@ -23589,7 +23584,7 @@
         <v>98</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="K242" s="2" t="s">
         <v>33</v>
@@ -23642,7 +23637,7 @@
     </row>
     <row r="243" spans="1:26" ht="13">
       <c r="A243" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>27</v>
@@ -23669,7 +23664,7 @@
         <v>33</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="K243" s="2" t="s">
         <v>33</v>
@@ -23678,7 +23673,7 @@
         <v>3</v>
       </c>
       <c r="M243" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="N243" s="2" t="s">
         <v>33</v>
@@ -23687,7 +23682,7 @@
         <v>2</v>
       </c>
       <c r="P243" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="Q243" s="2" t="s">
         <v>37</v>
@@ -23696,7 +23691,7 @@
         <v>1</v>
       </c>
       <c r="S243" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="T243" s="2" t="s">
         <v>33</v>
@@ -23722,7 +23717,7 @@
     </row>
     <row r="244" spans="1:26" ht="13">
       <c r="A244" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>27</v>
@@ -23749,7 +23744,7 @@
         <v>98</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="K244" s="2" t="s">
         <v>98</v>
@@ -23758,7 +23753,7 @@
         <v>4</v>
       </c>
       <c r="M244" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="N244" s="2" t="s">
         <v>98</v>
@@ -23767,7 +23762,7 @@
         <v>3</v>
       </c>
       <c r="P244" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="Q244" s="2" t="s">
         <v>49</v>
@@ -23776,7 +23771,7 @@
         <v>4</v>
       </c>
       <c r="S244" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="T244" s="2" t="s">
         <v>95</v>
@@ -23802,7 +23797,7 @@
     </row>
     <row r="245" spans="1:26" ht="13">
       <c r="A245" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>27</v>
@@ -23838,7 +23833,7 @@
         <v>3</v>
       </c>
       <c r="M245" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="N245" s="2" t="s">
         <v>49</v>
@@ -23847,7 +23842,7 @@
         <v>2</v>
       </c>
       <c r="P245" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="Q245" s="2" t="s">
         <v>105</v>
@@ -23856,7 +23851,7 @@
         <v>2</v>
       </c>
       <c r="S245" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="T245" s="2" t="s">
         <v>33</v>
@@ -23874,7 +23869,7 @@
         <v>154</v>
       </c>
       <c r="Y245" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="Z245" s="2" t="s">
         <v>57</v>
@@ -23882,7 +23877,7 @@
     </row>
     <row r="246" spans="1:26" ht="13">
       <c r="A246" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>27</v>
@@ -23897,7 +23892,7 @@
         <v>30</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>32</v>
@@ -23927,7 +23922,7 @@
         <v>5</v>
       </c>
       <c r="P246" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="Q246" s="2" t="s">
         <v>68</v>
@@ -23936,7 +23931,7 @@
         <v>5</v>
       </c>
       <c r="S246" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="T246" s="2" t="s">
         <v>105</v>
@@ -23954,7 +23949,7 @@
         <v>40</v>
       </c>
       <c r="Y246" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="Z246" s="2" t="s">
         <v>57</v>
@@ -23962,7 +23957,7 @@
     </row>
     <row r="247" spans="1:26" ht="13">
       <c r="A247" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>27</v>
@@ -23989,7 +23984,7 @@
         <v>63</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="K247" s="2" t="s">
         <v>98</v>
@@ -23998,7 +23993,7 @@
         <v>4</v>
       </c>
       <c r="M247" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="N247" s="2" t="s">
         <v>105</v>
@@ -24007,7 +24002,7 @@
         <v>5</v>
       </c>
       <c r="P247" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q247" s="2" t="s">
         <v>65</v>
@@ -24016,7 +24011,7 @@
         <v>4</v>
       </c>
       <c r="S247" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="T247" s="2" t="s">
         <v>65</v>
@@ -24034,7 +24029,7 @@
         <v>89</v>
       </c>
       <c r="Y247" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Z247" s="2" t="s">
         <v>42</v>
@@ -24042,7 +24037,7 @@
     </row>
     <row r="248" spans="1:26" ht="13">
       <c r="A248" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>101</v>
@@ -24069,7 +24064,7 @@
         <v>98</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="K248" s="2" t="s">
         <v>65</v>
@@ -24078,7 +24073,7 @@
         <v>4</v>
       </c>
       <c r="M248" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="N248" s="2" t="s">
         <v>65</v>
@@ -24087,7 +24082,7 @@
         <v>4</v>
       </c>
       <c r="P248" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="Q248" s="2" t="s">
         <v>65</v>
@@ -24122,7 +24117,7 @@
     </row>
     <row r="249" spans="1:26" ht="13">
       <c r="A249" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>27</v>
@@ -24149,7 +24144,7 @@
         <v>49</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="K249" s="2" t="s">
         <v>98</v>
@@ -24158,7 +24153,7 @@
         <v>5</v>
       </c>
       <c r="M249" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="N249" s="2" t="s">
         <v>65</v>
@@ -24167,7 +24162,7 @@
         <v>5</v>
       </c>
       <c r="P249" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="Q249" s="2" t="s">
         <v>98</v>
@@ -24176,7 +24171,7 @@
         <v>3</v>
       </c>
       <c r="S249" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="T249" s="2" t="s">
         <v>68</v>
@@ -24202,7 +24197,7 @@
     </row>
     <row r="250" spans="1:26" ht="13">
       <c r="A250" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>27</v>
@@ -24229,7 +24224,7 @@
         <v>98</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="K250" s="2" t="s">
         <v>98</v>
@@ -24238,7 +24233,7 @@
         <v>4</v>
       </c>
       <c r="M250" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="N250" s="2" t="s">
         <v>98</v>
@@ -24247,7 +24242,7 @@
         <v>4</v>
       </c>
       <c r="P250" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="Q250" s="2" t="s">
         <v>37</v>
@@ -24256,7 +24251,7 @@
         <v>3</v>
       </c>
       <c r="S250" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="T250" s="2" t="s">
         <v>98</v>
@@ -24282,7 +24277,7 @@
     </row>
     <row r="251" spans="1:26" ht="13">
       <c r="A251" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>101</v>
@@ -24309,7 +24304,7 @@
         <v>68</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K251" s="2" t="s">
         <v>68</v>
@@ -24318,7 +24313,7 @@
         <v>5</v>
       </c>
       <c r="M251" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N251" s="2" t="s">
         <v>68</v>
@@ -24327,7 +24322,7 @@
         <v>5</v>
       </c>
       <c r="P251" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q251" s="2" t="s">
         <v>68</v>
@@ -24336,7 +24331,7 @@
         <v>4</v>
       </c>
       <c r="S251" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="T251" s="2" t="s">
         <v>68</v>
@@ -24354,7 +24349,7 @@
         <v>71</v>
       </c>
       <c r="Y251" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Z251" s="2" t="s">
         <v>81</v>
@@ -24362,7 +24357,7 @@
     </row>
     <row r="252" spans="1:26" ht="13">
       <c r="A252" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>27</v>
@@ -24389,7 +24384,7 @@
         <v>68</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K252" s="2" t="s">
         <v>68</v>
@@ -24398,7 +24393,7 @@
         <v>4</v>
       </c>
       <c r="M252" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N252" s="2" t="s">
         <v>49</v>
@@ -24407,7 +24402,7 @@
         <v>3</v>
       </c>
       <c r="P252" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="Q252" s="2" t="s">
         <v>65</v>
@@ -24416,7 +24411,7 @@
         <v>4</v>
       </c>
       <c r="S252" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="T252" s="2" t="s">
         <v>68</v>
@@ -24434,7 +24429,7 @@
         <v>230</v>
       </c>
       <c r="Y252" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Z252" s="2" t="s">
         <v>42</v>
@@ -24442,7 +24437,7 @@
     </row>
     <row r="253" spans="1:26" ht="13">
       <c r="A253" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>27</v>
@@ -24469,7 +24464,7 @@
         <v>98</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="K253" s="2" t="s">
         <v>68</v>
@@ -24487,7 +24482,7 @@
         <v>4</v>
       </c>
       <c r="P253" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="Q253" s="2" t="s">
         <v>95</v>
@@ -24496,7 +24491,7 @@
         <v>4</v>
       </c>
       <c r="S253" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="T253" s="2" t="s">
         <v>68</v>
@@ -24522,7 +24517,7 @@
     </row>
     <row r="254" spans="1:26" ht="13">
       <c r="A254" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>27</v>
@@ -24549,7 +24544,7 @@
         <v>98</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="K254" s="2" t="s">
         <v>98</v>
@@ -24558,7 +24553,7 @@
         <v>5</v>
       </c>
       <c r="M254" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="N254" s="2" t="s">
         <v>65</v>
@@ -24567,7 +24562,7 @@
         <v>3</v>
       </c>
       <c r="P254" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="Q254" s="2" t="s">
         <v>65</v>
@@ -24576,7 +24571,7 @@
         <v>3</v>
       </c>
       <c r="S254" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="T254" s="2" t="s">
         <v>65</v>
@@ -24594,7 +24589,7 @@
         <v>28</v>
       </c>
       <c r="Y254" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="Z254" s="2" t="s">
         <v>91</v>
@@ -24602,7 +24597,7 @@
     </row>
     <row r="255" spans="1:26" ht="13">
       <c r="A255" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>27</v>
@@ -24629,7 +24624,7 @@
         <v>63</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="K255" s="2" t="s">
         <v>68</v>
@@ -24638,7 +24633,7 @@
         <v>3</v>
       </c>
       <c r="M255" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="N255" s="2" t="s">
         <v>68</v>
@@ -24647,7 +24642,7 @@
         <v>3</v>
       </c>
       <c r="P255" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="Q255" s="2" t="s">
         <v>65</v>
@@ -24674,7 +24669,7 @@
         <v>40</v>
       </c>
       <c r="Y255" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="Z255" s="2" t="s">
         <v>42</v>
@@ -24682,7 +24677,7 @@
     </row>
     <row r="256" spans="1:26" ht="13">
       <c r="A256" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>27</v>
@@ -24709,7 +24704,7 @@
         <v>63</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K256" s="2" t="s">
         <v>49</v>
@@ -24718,7 +24713,7 @@
         <v>4</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="N256" s="2" t="s">
         <v>65</v>
@@ -24727,7 +24722,7 @@
         <v>5</v>
       </c>
       <c r="P256" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="Q256" s="2" t="s">
         <v>95</v>
@@ -24736,7 +24731,7 @@
         <v>4</v>
       </c>
       <c r="S256" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="T256" s="2" t="s">
         <v>51</v>
@@ -24754,7 +24749,7 @@
         <v>154</v>
       </c>
       <c r="Y256" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="Z256" s="2" t="s">
         <v>42</v>
@@ -24762,7 +24757,7 @@
     </row>
     <row r="257" spans="1:26" ht="13">
       <c r="A257" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>27</v>
@@ -24789,7 +24784,7 @@
         <v>98</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="K257" s="2" t="s">
         <v>68</v>
@@ -24798,7 +24793,7 @@
         <v>4</v>
       </c>
       <c r="M257" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="N257" s="2" t="s">
         <v>68</v>
@@ -24807,7 +24802,7 @@
         <v>3</v>
       </c>
       <c r="P257" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q257" s="2" t="s">
         <v>49</v>
@@ -24816,7 +24811,7 @@
         <v>3</v>
       </c>
       <c r="S257" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="T257" s="2" t="s">
         <v>68</v>
@@ -24834,7 +24829,7 @@
         <v>89</v>
       </c>
       <c r="Y257" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="Z257" s="2" t="s">
         <v>73</v>
@@ -24842,7 +24837,7 @@
     </row>
     <row r="258" spans="1:26" ht="13">
       <c r="A258" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>101</v>
@@ -24869,7 +24864,7 @@
         <v>131</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="K258" s="2" t="s">
         <v>33</v>
@@ -24887,7 +24882,7 @@
         <v>2</v>
       </c>
       <c r="P258" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="Q258" s="2" t="s">
         <v>131</v>
@@ -24896,7 +24891,7 @@
         <v>4</v>
       </c>
       <c r="S258" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="T258" s="2" t="s">
         <v>65</v>
@@ -24958,7 +24953,7 @@
         <v>5</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N259" s="2" t="s">
         <v>51</v>
@@ -25029,7 +25024,7 @@
         <v>63</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K260" s="2" t="s">
         <v>51</v>
@@ -25038,7 +25033,7 @@
         <v>4</v>
       </c>
       <c r="M260" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="N260" s="2" t="s">
         <v>51</v>
@@ -25047,7 +25042,7 @@
         <v>4</v>
       </c>
       <c r="P260" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q260" s="2" t="s">
         <v>68</v>
@@ -25074,7 +25069,7 @@
         <v>230</v>
       </c>
       <c r="Y260" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Z260" s="2" t="s">
         <v>42</v>
@@ -25082,7 +25077,7 @@
     </row>
     <row r="261" spans="1:26" ht="13">
       <c r="A261" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>101</v>
@@ -25118,7 +25113,7 @@
         <v>4</v>
       </c>
       <c r="M261" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="N261" s="2" t="s">
         <v>98</v>
@@ -25127,7 +25122,7 @@
         <v>4</v>
       </c>
       <c r="P261" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="Q261" s="2" t="s">
         <v>98</v>
@@ -25136,7 +25131,7 @@
         <v>3</v>
       </c>
       <c r="S261" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="T261" s="2" t="s">
         <v>68</v>
@@ -25154,7 +25149,7 @@
         <v>154</v>
       </c>
       <c r="Y261" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Z261" s="2" t="s">
         <v>57</v>
@@ -25162,7 +25157,7 @@
     </row>
     <row r="262" spans="1:26" ht="13">
       <c r="A262" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>27</v>
@@ -25189,7 +25184,7 @@
         <v>33</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K262" s="2" t="s">
         <v>33</v>
@@ -25207,7 +25202,7 @@
         <v>3</v>
       </c>
       <c r="P262" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="Q262" s="2" t="s">
         <v>95</v>
@@ -25216,7 +25211,7 @@
         <v>3</v>
       </c>
       <c r="S262" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="T262" s="2" t="s">
         <v>95</v>
@@ -25234,7 +25229,7 @@
         <v>40</v>
       </c>
       <c r="Y262" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="Z262" s="2" t="s">
         <v>91</v>
@@ -25242,7 +25237,7 @@
     </row>
     <row r="263" spans="1:26" ht="13">
       <c r="A263" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>27</v>
@@ -25269,7 +25264,7 @@
         <v>63</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="K263" s="2" t="s">
         <v>65</v>
@@ -25278,7 +25273,7 @@
         <v>3</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="N263" s="2" t="s">
         <v>65</v>
@@ -25287,7 +25282,7 @@
         <v>3</v>
       </c>
       <c r="P263" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="Q263" s="2" t="s">
         <v>65</v>
@@ -25296,7 +25291,7 @@
         <v>3</v>
       </c>
       <c r="S263" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="T263" s="2" t="s">
         <v>65</v>
@@ -25322,7 +25317,7 @@
     </row>
     <row r="264" spans="1:26" ht="13">
       <c r="A264" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>27</v>
@@ -25349,7 +25344,7 @@
         <v>105</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K264" s="2" t="s">
         <v>98</v>
@@ -25358,7 +25353,7 @@
         <v>4</v>
       </c>
       <c r="M264" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="N264" s="2" t="s">
         <v>98</v>
@@ -25367,7 +25362,7 @@
         <v>4</v>
       </c>
       <c r="P264" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="Q264" s="2" t="s">
         <v>98</v>
@@ -25376,7 +25371,7 @@
         <v>4</v>
       </c>
       <c r="S264" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="T264" s="2" t="s">
         <v>131</v>
@@ -25394,7 +25389,7 @@
         <v>45</v>
       </c>
       <c r="Y264" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="Z264" s="2" t="s">
         <v>57</v>
@@ -25402,7 +25397,7 @@
     </row>
     <row r="265" spans="1:26" ht="13">
       <c r="A265" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>27</v>
@@ -25438,7 +25433,7 @@
         <v>4</v>
       </c>
       <c r="M265" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="N265" s="2" t="s">
         <v>65</v>
@@ -25456,7 +25451,7 @@
         <v>4</v>
       </c>
       <c r="S265" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="T265" s="2" t="s">
         <v>68</v>
@@ -25474,7 +25469,7 @@
         <v>40</v>
       </c>
       <c r="Y265" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Z265" s="2" t="s">
         <v>42</v>
@@ -25482,7 +25477,7 @@
     </row>
     <row r="266" spans="1:26" ht="13">
       <c r="A266" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>27</v>
@@ -25518,7 +25513,7 @@
         <v>5</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="N266" s="2" t="s">
         <v>65</v>
@@ -25536,7 +25531,7 @@
         <v>4</v>
       </c>
       <c r="S266" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="T266" s="2" t="s">
         <v>68</v>
@@ -25562,7 +25557,7 @@
     </row>
     <row r="267" spans="1:26" ht="13">
       <c r="A267" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>27</v>
@@ -25589,7 +25584,7 @@
         <v>63</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="K267" s="2" t="s">
         <v>98</v>
@@ -25607,7 +25602,7 @@
         <v>3</v>
       </c>
       <c r="P267" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="Q267" s="2" t="s">
         <v>124</v>
@@ -25616,7 +25611,7 @@
         <v>4</v>
       </c>
       <c r="S267" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="T267" s="2" t="s">
         <v>124</v>
@@ -25642,7 +25637,7 @@
     </row>
     <row r="268" spans="1:26" ht="13">
       <c r="A268" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>27</v>
@@ -25669,7 +25664,7 @@
         <v>124</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="K268" s="2" t="s">
         <v>124</v>
@@ -25678,7 +25673,7 @@
         <v>4</v>
       </c>
       <c r="M268" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="N268" s="2" t="s">
         <v>51</v>
@@ -25687,7 +25682,7 @@
         <v>3</v>
       </c>
       <c r="P268" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="Q268" s="2" t="s">
         <v>105</v>
@@ -25767,7 +25762,7 @@
         <v>4</v>
       </c>
       <c r="P269" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="Q269" s="2" t="s">
         <v>98</v>
@@ -25802,7 +25797,7 @@
     </row>
     <row r="270" spans="1:26" ht="13">
       <c r="A270" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>27</v>
@@ -25814,7 +25809,7 @@
         <v>45</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>75</v>
@@ -25847,7 +25842,7 @@
         <v>4</v>
       </c>
       <c r="P270" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="Q270" s="2" t="s">
         <v>49</v>
@@ -25874,7 +25869,7 @@
         <v>154</v>
       </c>
       <c r="Y270" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="Z270" s="2" t="s">
         <v>57</v>
@@ -25882,7 +25877,7 @@
     </row>
     <row r="271" spans="1:26" ht="13">
       <c r="A271" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>27</v>
@@ -25909,7 +25904,7 @@
         <v>68</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="K271" s="2" t="s">
         <v>49</v>
@@ -25918,7 +25913,7 @@
         <v>3</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="N271" s="2" t="s">
         <v>68</v>
@@ -25927,7 +25922,7 @@
         <v>4</v>
       </c>
       <c r="P271" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="Q271" s="2" t="s">
         <v>49</v>
@@ -25936,7 +25931,7 @@
         <v>2</v>
       </c>
       <c r="S271" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="T271" s="2" t="s">
         <v>68</v>
@@ -25962,7 +25957,7 @@
     </row>
     <row r="272" spans="1:26" ht="13">
       <c r="A272" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>27</v>
@@ -25977,7 +25972,7 @@
         <v>30</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>93</v>
@@ -25989,7 +25984,7 @@
         <v>49</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K272" s="2" t="s">
         <v>49</v>
@@ -25998,7 +25993,7 @@
         <v>5</v>
       </c>
       <c r="M272" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="N272" s="2" t="s">
         <v>49</v>
@@ -26034,7 +26029,7 @@
         <v>40</v>
       </c>
       <c r="Y272" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="Z272" s="2" t="s">
         <v>91</v>
@@ -26087,7 +26082,7 @@
         <v>4</v>
       </c>
       <c r="P273" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q273" s="2" t="s">
         <v>95</v>
@@ -26122,7 +26117,7 @@
     </row>
     <row r="274" spans="1:26" ht="13">
       <c r="A274" s="5" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>27</v>
@@ -26149,7 +26144,7 @@
         <v>49</v>
       </c>
       <c r="J274" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="K274" s="2" t="s">
         <v>49</v>
@@ -26158,7 +26153,7 @@
         <v>5</v>
       </c>
       <c r="M274" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="N274" s="2" t="s">
         <v>98</v>
@@ -26194,7 +26189,7 @@
         <v>28</v>
       </c>
       <c r="Y274" s="10" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Z274" s="2" t="s">
         <v>57</v>
@@ -26202,7 +26197,7 @@
     </row>
     <row r="275" spans="1:26" ht="13">
       <c r="A275" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>27</v>
@@ -26229,7 +26224,7 @@
         <v>49</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="K275" s="5" t="s">
         <v>246</v>
@@ -26256,7 +26251,7 @@
         <v>3</v>
       </c>
       <c r="S275" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T275" s="2" t="s">
         <v>98</v>
@@ -26282,7 +26277,7 @@
     </row>
     <row r="276" spans="1:26" ht="13">
       <c r="A276" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>27</v>
@@ -26318,7 +26313,7 @@
         <v>5</v>
       </c>
       <c r="M276" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="N276" s="2" t="s">
         <v>98</v>
@@ -26327,7 +26322,7 @@
         <v>5</v>
       </c>
       <c r="P276" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="Q276" s="2" t="s">
         <v>98</v>
@@ -26336,7 +26331,7 @@
         <v>4</v>
       </c>
       <c r="S276" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="T276" s="5" t="s">
         <v>33</v>
@@ -26354,7 +26349,7 @@
         <v>71</v>
       </c>
       <c r="Y276" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Z276" s="2" t="s">
         <v>42</v>
@@ -26362,7 +26357,7 @@
     </row>
     <row r="277" spans="1:26" ht="13">
       <c r="A277" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>27</v>
@@ -26389,7 +26384,7 @@
         <v>98</v>
       </c>
       <c r="J277" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="K277" s="2" t="s">
         <v>98</v>
@@ -26407,7 +26402,7 @@
         <v>5</v>
       </c>
       <c r="P277" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Q277" s="2" t="s">
         <v>98</v>
@@ -26416,7 +26411,7 @@
         <v>3</v>
       </c>
       <c r="S277" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T277" s="2" t="s">
         <v>98</v>
@@ -26434,7 +26429,7 @@
         <v>28</v>
       </c>
       <c r="Y277" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="Z277" s="2" t="s">
         <v>57</v>
@@ -26442,7 +26437,7 @@
     </row>
     <row r="278" spans="1:26" ht="13">
       <c r="A278" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>101</v>
@@ -26469,7 +26464,7 @@
         <v>68</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K278" s="2" t="s">
         <v>51</v>
@@ -26478,7 +26473,7 @@
         <v>3</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="N278" s="2" t="s">
         <v>68</v>
@@ -26522,7 +26517,7 @@
     </row>
     <row r="279" spans="1:26" ht="13">
       <c r="A279" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>27</v>
@@ -26576,7 +26571,7 @@
         <v>4</v>
       </c>
       <c r="S279" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="T279" s="2" t="s">
         <v>51</v>
@@ -26602,7 +26597,7 @@
     </row>
     <row r="280" spans="1:26" ht="13">
       <c r="A280" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>101</v>
@@ -26629,7 +26624,7 @@
         <v>51</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K280" s="2" t="s">
         <v>51</v>
@@ -26638,7 +26633,7 @@
         <v>3</v>
       </c>
       <c r="M280" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="N280" s="2" t="s">
         <v>131</v>
@@ -26674,7 +26669,7 @@
         <v>89</v>
       </c>
       <c r="Y280" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Z280" s="2" t="s">
         <v>42</v>
@@ -26682,7 +26677,7 @@
     </row>
     <row r="281" spans="1:26" ht="13">
       <c r="A281" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>27</v>
@@ -26709,7 +26704,7 @@
         <v>63</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K281" s="2" t="s">
         <v>65</v>
@@ -26718,7 +26713,7 @@
         <v>4</v>
       </c>
       <c r="M281" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N281" s="2" t="s">
         <v>65</v>
@@ -26727,7 +26722,7 @@
         <v>3</v>
       </c>
       <c r="P281" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Q281" s="2" t="s">
         <v>65</v>
@@ -26736,7 +26731,7 @@
         <v>4</v>
       </c>
       <c r="S281" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="T281" s="2" t="s">
         <v>68</v>
@@ -26762,7 +26757,7 @@
     </row>
     <row r="282" spans="1:26" ht="13">
       <c r="A282" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>101</v>
@@ -26789,7 +26784,7 @@
         <v>68</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="K282" s="2" t="s">
         <v>98</v>
@@ -26798,7 +26793,7 @@
         <v>5</v>
       </c>
       <c r="M282" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="N282" s="2" t="s">
         <v>68</v>
@@ -26807,7 +26802,7 @@
         <v>4</v>
       </c>
       <c r="P282" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="Q282" s="2" t="s">
         <v>68</v>
@@ -26816,7 +26811,7 @@
         <v>4</v>
       </c>
       <c r="S282" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="T282" s="2" t="s">
         <v>68</v>
@@ -26887,7 +26882,7 @@
         <v>3</v>
       </c>
       <c r="P283" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q283" s="2" t="s">
         <v>105</v>
@@ -26896,7 +26891,7 @@
         <v>3</v>
       </c>
       <c r="S283" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="T283" s="2" t="s">
         <v>68</v>
@@ -26914,7 +26909,7 @@
         <v>40</v>
       </c>
       <c r="Y283" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Z283" s="2" t="s">
         <v>57</v>
@@ -26922,7 +26917,7 @@
     </row>
     <row r="284" spans="1:26" ht="13">
       <c r="A284" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>27</v>
@@ -26949,7 +26944,7 @@
         <v>68</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="K284" s="2" t="s">
         <v>68</v>
@@ -26958,7 +26953,7 @@
         <v>4</v>
       </c>
       <c r="M284" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="N284" s="2" t="s">
         <v>68</v>
@@ -26967,7 +26962,7 @@
         <v>4</v>
       </c>
       <c r="P284" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="Q284" s="2" t="s">
         <v>68</v>
@@ -26994,7 +26989,7 @@
         <v>230</v>
       </c>
       <c r="Y284" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="Z284" s="2" t="s">
         <v>81</v>
@@ -27002,7 +26997,7 @@
     </row>
     <row r="285" spans="1:26" ht="13">
       <c r="A285" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>27</v>
@@ -27029,7 +27024,7 @@
         <v>33</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="K285" s="2" t="s">
         <v>33</v>
@@ -27038,7 +27033,7 @@
         <v>4</v>
       </c>
       <c r="M285" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="N285" s="2" t="s">
         <v>33</v>
@@ -27047,7 +27042,7 @@
         <v>4</v>
       </c>
       <c r="P285" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q285" s="2" t="s">
         <v>33</v>
@@ -27118,7 +27113,7 @@
         <v>5</v>
       </c>
       <c r="M286" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="N286" s="2" t="s">
         <v>98</v>
@@ -27127,7 +27122,7 @@
         <v>5</v>
       </c>
       <c r="P286" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q286" s="2" t="s">
         <v>98</v>
@@ -27136,7 +27131,7 @@
         <v>5</v>
       </c>
       <c r="S286" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="T286" s="2" t="s">
         <v>98</v>
@@ -27162,7 +27157,7 @@
     </row>
     <row r="287" spans="1:26" ht="13">
       <c r="A287" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>101</v>
@@ -27189,7 +27184,7 @@
         <v>63</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K287" s="2" t="s">
         <v>124</v>
@@ -27198,7 +27193,7 @@
         <v>5</v>
       </c>
       <c r="M287" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="N287" s="2" t="s">
         <v>68</v>
@@ -27207,7 +27202,7 @@
         <v>4</v>
       </c>
       <c r="P287" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="Q287" s="2" t="s">
         <v>65</v>
@@ -27358,7 +27353,7 @@
         <v>4</v>
       </c>
       <c r="M289" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="N289" s="2" t="s">
         <v>68</v>
@@ -27367,7 +27362,7 @@
         <v>4</v>
       </c>
       <c r="P289" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="Q289" s="2" t="s">
         <v>49</v>
@@ -27376,7 +27371,7 @@
         <v>4</v>
       </c>
       <c r="S289" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="T289" s="2" t="s">
         <v>65</v>
@@ -27402,7 +27397,7 @@
     </row>
     <row r="290" spans="1:26" ht="13">
       <c r="A290" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>27</v>
@@ -27429,7 +27424,7 @@
         <v>98</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="K290" s="2" t="s">
         <v>98</v>
@@ -27447,7 +27442,7 @@
         <v>4</v>
       </c>
       <c r="P290" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="Q290" s="2" t="s">
         <v>124</v>
@@ -27456,7 +27451,7 @@
         <v>2</v>
       </c>
       <c r="S290" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="T290" s="2" t="s">
         <v>68</v>
@@ -27474,7 +27469,7 @@
         <v>28</v>
       </c>
       <c r="Y290" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="Z290" s="2" t="s">
         <v>91</v>
@@ -27482,13 +27477,13 @@
     </row>
     <row r="291" spans="1:26" ht="13">
       <c r="A291" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1113</v>
+        <v>246</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>45</v>
@@ -27518,7 +27513,7 @@
         <v>1</v>
       </c>
       <c r="M291" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="N291" s="2" t="s">
         <v>131</v>
@@ -27554,7 +27549,7 @@
         <v>28</v>
       </c>
       <c r="Y291" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="Z291" s="2" t="s">
         <v>91</v>
@@ -27562,7 +27557,7 @@
     </row>
     <row r="292" spans="1:26" ht="13">
       <c r="A292" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>27</v>
@@ -27589,7 +27584,7 @@
         <v>33</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="K292" s="5" t="s">
         <v>95</v>
@@ -27642,7 +27637,7 @@
     </row>
     <row r="293" spans="1:26" ht="13">
       <c r="A293" s="2" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>27</v>
@@ -27669,7 +27664,7 @@
         <v>33</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K293" s="2" t="s">
         <v>33</v>
@@ -27687,7 +27682,7 @@
         <v>4</v>
       </c>
       <c r="P293" s="2" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="Q293" s="2" t="s">
         <v>68</v>
@@ -27722,7 +27717,7 @@
     </row>
     <row r="294" spans="1:26" ht="13">
       <c r="A294" s="2" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>27</v>
@@ -27749,7 +27744,7 @@
         <v>68</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="K294" s="2" t="s">
         <v>68</v>
@@ -27767,7 +27762,7 @@
         <v>3</v>
       </c>
       <c r="P294" s="2" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="Q294" s="2" t="s">
         <v>68</v>
@@ -27776,7 +27771,7 @@
         <v>4</v>
       </c>
       <c r="S294" s="2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="T294" s="2" t="s">
         <v>98</v>
@@ -27794,7 +27789,7 @@
         <v>40</v>
       </c>
       <c r="Y294" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="Z294" s="2" t="s">
         <v>42</v>
@@ -27802,7 +27797,7 @@
     </row>
     <row r="295" spans="1:26" ht="13">
       <c r="A295" s="2" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>27</v>
@@ -27829,7 +27824,7 @@
         <v>51</v>
       </c>
       <c r="J295" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="K295" s="2" t="s">
         <v>51</v>
@@ -27838,7 +27833,7 @@
         <v>5</v>
       </c>
       <c r="M295" s="2" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="N295" s="2" t="s">
         <v>51</v>
@@ -27847,7 +27842,7 @@
         <v>5</v>
       </c>
       <c r="P295" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="Q295" s="2" t="s">
         <v>68</v>
@@ -27856,7 +27851,7 @@
         <v>4</v>
       </c>
       <c r="S295" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="T295" s="2" t="s">
         <v>68</v>
@@ -27918,7 +27913,7 @@
         <v>5</v>
       </c>
       <c r="M296" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="N296" s="2" t="s">
         <v>68</v>
@@ -27936,7 +27931,7 @@
         <v>4</v>
       </c>
       <c r="S296" s="2" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="T296" s="2" t="s">
         <v>68</v>
@@ -27954,7 +27949,7 @@
         <v>154</v>
       </c>
       <c r="Y296" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Z296" s="2" t="s">
         <v>42</v>
@@ -27962,7 +27957,7 @@
     </row>
     <row r="297" spans="1:26" ht="13">
       <c r="A297" s="2" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>27</v>
@@ -28122,7 +28117,7 @@
     </row>
     <row r="299" spans="1:26" ht="13">
       <c r="A299" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>27</v>
@@ -28149,7 +28144,7 @@
         <v>98</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K299" s="2" t="s">
         <v>98</v>
@@ -28158,7 +28153,7 @@
         <v>5</v>
       </c>
       <c r="M299" s="2" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="N299" s="2" t="s">
         <v>98</v>
@@ -28194,7 +28189,7 @@
         <v>154</v>
       </c>
       <c r="Y299" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="Z299" s="2" t="s">
         <v>57</v>
@@ -28202,7 +28197,7 @@
     </row>
     <row r="300" spans="1:26" ht="13">
       <c r="A300" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>27</v>
@@ -28229,7 +28224,7 @@
         <v>49</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="K300" s="2" t="s">
         <v>49</v>
@@ -28238,7 +28233,7 @@
         <v>4</v>
       </c>
       <c r="M300" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="N300" s="2" t="s">
         <v>49</v>
@@ -28256,7 +28251,7 @@
         <v>3</v>
       </c>
       <c r="S300" s="2" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="T300" s="2" t="s">
         <v>131</v>
@@ -28309,7 +28304,7 @@
         <v>49</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K301" s="2" t="s">
         <v>98</v>
@@ -28327,7 +28322,7 @@
         <v>4</v>
       </c>
       <c r="P301" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="Q301" s="2" t="s">
         <v>98</v>
@@ -28336,7 +28331,7 @@
         <v>4</v>
       </c>
       <c r="S301" s="2" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="T301" s="2" t="s">
         <v>49</v>
@@ -28362,7 +28357,7 @@
     </row>
     <row r="302" spans="1:26" ht="13">
       <c r="A302" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>27</v>
@@ -28389,7 +28384,7 @@
         <v>63</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K302" s="2" t="s">
         <v>65</v>
@@ -28398,7 +28393,7 @@
         <v>4</v>
       </c>
       <c r="M302" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N302" s="2" t="s">
         <v>65</v>
@@ -28407,7 +28402,7 @@
         <v>4</v>
       </c>
       <c r="P302" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q302" s="2" t="s">
         <v>65</v>
@@ -28442,7 +28437,7 @@
     </row>
     <row r="303" spans="1:26" ht="13">
       <c r="A303" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>27</v>
@@ -28478,7 +28473,7 @@
         <v>4</v>
       </c>
       <c r="M303" s="2" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="N303" s="2" t="s">
         <v>105</v>
@@ -28487,7 +28482,7 @@
         <v>1</v>
       </c>
       <c r="P303" s="2" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="Q303" s="2" t="s">
         <v>51</v>
@@ -28496,7 +28491,7 @@
         <v>2</v>
       </c>
       <c r="S303" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="T303" s="2" t="s">
         <v>98</v>
@@ -28522,7 +28517,7 @@
     </row>
     <row r="304" spans="1:26" ht="13">
       <c r="A304" s="2" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>27</v>
@@ -28549,7 +28544,7 @@
         <v>63</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="K304" s="2" t="s">
         <v>65</v>
@@ -28558,7 +28553,7 @@
         <v>3</v>
       </c>
       <c r="M304" s="2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="N304" s="2" t="s">
         <v>65</v>
@@ -28567,7 +28562,7 @@
         <v>3</v>
       </c>
       <c r="P304" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="Q304" s="2" t="s">
         <v>33</v>
@@ -28576,7 +28571,7 @@
         <v>2</v>
       </c>
       <c r="S304" s="2" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="T304" s="2" t="s">
         <v>33</v>
@@ -28594,7 +28589,7 @@
         <v>154</v>
       </c>
       <c r="Y304" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="Z304" s="2" t="s">
         <v>73</v>
@@ -28602,7 +28597,7 @@
     </row>
     <row r="305" spans="1:26" ht="13">
       <c r="A305" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>101</v>
@@ -28629,7 +28624,7 @@
         <v>98</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="K305" s="2" t="s">
         <v>98</v>
@@ -28647,7 +28642,7 @@
         <v>4</v>
       </c>
       <c r="P305" s="2" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="Q305" s="2" t="s">
         <v>131</v>
@@ -28656,7 +28651,7 @@
         <v>3</v>
       </c>
       <c r="S305" s="2" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="T305" s="2" t="s">
         <v>68</v>
@@ -28709,7 +28704,7 @@
         <v>98</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="K306" s="2" t="s">
         <v>98</v>
@@ -28718,7 +28713,7 @@
         <v>5</v>
       </c>
       <c r="M306" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N306" s="2" t="s">
         <v>98</v>
@@ -28736,7 +28731,7 @@
         <v>5</v>
       </c>
       <c r="S306" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="T306" s="2" t="s">
         <v>98</v>
@@ -28762,7 +28757,7 @@
     </row>
     <row r="307" spans="1:26" ht="13">
       <c r="A307" s="2" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>27</v>
@@ -28789,19 +28784,19 @@
         <v>51</v>
       </c>
       <c r="J307" s="2" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="K307" s="2" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="L307" s="3">
         <v>4</v>
       </c>
       <c r="M307" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="N307" s="2" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="O307" s="3">
         <v>2</v>
@@ -28842,7 +28837,7 @@
     </row>
     <row r="308" spans="1:26" ht="13">
       <c r="A308" s="2" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>27</v>
@@ -28878,7 +28873,7 @@
         <v>3</v>
       </c>
       <c r="M308" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N308" s="2" t="s">
         <v>95</v>
@@ -28914,7 +28909,7 @@
         <v>154</v>
       </c>
       <c r="Y308" s="2" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="Z308" s="2" t="s">
         <v>73</v>
@@ -28922,7 +28917,7 @@
     </row>
     <row r="309" spans="1:26" ht="13">
       <c r="A309" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>27</v>
@@ -28949,7 +28944,7 @@
         <v>63</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="K309" s="2" t="s">
         <v>98</v>
@@ -28958,7 +28953,7 @@
         <v>3</v>
       </c>
       <c r="M309" s="2" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="N309" s="2" t="s">
         <v>68</v>
@@ -28967,7 +28962,7 @@
         <v>4</v>
       </c>
       <c r="P309" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="Q309" s="2" t="s">
         <v>65</v>
@@ -28976,7 +28971,7 @@
         <v>3</v>
       </c>
       <c r="S309" s="2" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="T309" s="2" t="s">
         <v>68</v>
@@ -28994,7 +28989,7 @@
         <v>154</v>
       </c>
       <c r="Y309" s="2" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="Z309" s="2" t="s">
         <v>57</v>
@@ -29002,7 +28997,7 @@
     </row>
     <row r="310" spans="1:26" ht="13">
       <c r="A310" s="2" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>27</v>
@@ -29063,7 +29058,7 @@
         <v>1</v>
       </c>
       <c r="V310" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="W310" s="7">
         <v>0</v>
@@ -29107,7 +29102,7 @@
         <v>33</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="K311" s="2" t="s">
         <v>68</v>
@@ -29116,7 +29111,7 @@
         <v>4</v>
       </c>
       <c r="M311" s="2" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="N311" s="2" t="s">
         <v>68</v>
@@ -29125,7 +29120,7 @@
         <v>3</v>
       </c>
       <c r="P311" s="2" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="Q311" s="2" t="s">
         <v>124</v>
@@ -29134,7 +29129,7 @@
         <v>1</v>
       </c>
       <c r="S311" s="2" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="T311" s="2" t="s">
         <v>105</v>
@@ -29152,7 +29147,7 @@
         <v>45</v>
       </c>
       <c r="Y311" s="2" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="Z311" s="2" t="s">
         <v>73</v>
@@ -29160,7 +29155,7 @@
     </row>
     <row r="312" spans="1:26" ht="13">
       <c r="A312" s="2" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>27</v>
@@ -29187,7 +29182,7 @@
         <v>98</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K312" s="2" t="s">
         <v>98</v>
@@ -29196,7 +29191,7 @@
         <v>4</v>
       </c>
       <c r="M312" s="2" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="N312" s="2" t="s">
         <v>49</v>
@@ -29214,7 +29209,7 @@
         <v>4</v>
       </c>
       <c r="S312" s="2" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="T312" s="2" t="s">
         <v>98</v>
@@ -29285,7 +29280,7 @@
         <v>4</v>
       </c>
       <c r="P313" s="2" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="Q313" s="2" t="s">
         <v>68</v>
@@ -29294,7 +29289,7 @@
         <v>5</v>
       </c>
       <c r="S313" s="2" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="T313" s="2" t="s">
         <v>68</v>
@@ -29320,7 +29315,7 @@
     </row>
     <row r="314" spans="1:26" ht="13">
       <c r="A314" s="2" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>27</v>
@@ -29356,7 +29351,7 @@
         <v>5</v>
       </c>
       <c r="M314" s="2" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="N314" s="2" t="s">
         <v>95</v>
@@ -29374,7 +29369,7 @@
         <v>5</v>
       </c>
       <c r="S314" s="2" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="T314" s="2" t="s">
         <v>95</v>
@@ -29400,7 +29395,7 @@
     </row>
     <row r="315" spans="1:26" ht="13">
       <c r="A315" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>27</v>
@@ -29427,7 +29422,7 @@
         <v>63</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K315" s="2" t="s">
         <v>95</v>
@@ -29436,7 +29431,7 @@
         <v>4</v>
       </c>
       <c r="M315" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N315" s="2" t="s">
         <v>95</v>
@@ -29445,7 +29440,7 @@
         <v>3</v>
       </c>
       <c r="P315" s="2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Q315" s="2" t="s">
         <v>95</v>
@@ -29480,7 +29475,7 @@
     </row>
     <row r="316" spans="1:26" ht="13">
       <c r="A316" s="2" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>27</v>
@@ -29534,7 +29529,7 @@
         <v>3</v>
       </c>
       <c r="S316" s="2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="T316" s="2" t="s">
         <v>51</v>
@@ -29552,7 +29547,7 @@
         <v>40</v>
       </c>
       <c r="Y316" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Z316" s="2" t="s">
         <v>42</v>
@@ -29560,7 +29555,7 @@
     </row>
     <row r="317" spans="1:26" ht="13">
       <c r="A317" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>27</v>
@@ -29587,7 +29582,7 @@
         <v>63</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="K317" s="5" t="s">
         <v>33</v>
@@ -29596,7 +29591,7 @@
         <v>5</v>
       </c>
       <c r="M317" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="N317" s="2" t="s">
         <v>49</v>
@@ -29605,7 +29600,7 @@
         <v>4</v>
       </c>
       <c r="P317" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="Q317" s="2" t="s">
         <v>49</v>
@@ -29614,7 +29609,7 @@
         <v>4</v>
       </c>
       <c r="S317" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T317" s="2" t="s">
         <v>49</v>
@@ -29632,7 +29627,7 @@
         <v>154</v>
       </c>
       <c r="Y317" s="2" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="Z317" s="2" t="s">
         <v>81</v>
@@ -29640,7 +29635,7 @@
     </row>
     <row r="318" spans="1:26" ht="13">
       <c r="A318" s="2" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>27</v>
@@ -29676,7 +29671,7 @@
         <v>5</v>
       </c>
       <c r="M318" s="2" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="N318" s="2" t="s">
         <v>49</v>
@@ -29685,7 +29680,7 @@
         <v>4</v>
       </c>
       <c r="P318" s="2" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="Q318" s="2" t="s">
         <v>98</v>
@@ -29720,7 +29715,7 @@
     </row>
     <row r="319" spans="1:26" ht="13">
       <c r="A319" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>27</v>
@@ -29747,7 +29742,7 @@
         <v>49</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K319" s="2" t="s">
         <v>49</v>
@@ -29756,7 +29751,7 @@
         <v>4</v>
       </c>
       <c r="M319" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="N319" s="2" t="s">
         <v>65</v>
@@ -29765,7 +29760,7 @@
         <v>4</v>
       </c>
       <c r="P319" s="2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="Q319" s="2" t="s">
         <v>51</v>
@@ -29774,7 +29769,7 @@
         <v>5</v>
       </c>
       <c r="S319" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="T319" s="2" t="s">
         <v>68</v>
@@ -29827,7 +29822,7 @@
         <v>63</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="K320" s="2" t="s">
         <v>65</v>
@@ -29836,7 +29831,7 @@
         <v>5</v>
       </c>
       <c r="M320" s="2" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="N320" s="2" t="s">
         <v>49</v>
@@ -29845,7 +29840,7 @@
         <v>5</v>
       </c>
       <c r="P320" s="2" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="Q320" s="2" t="s">
         <v>68</v>
@@ -29872,7 +29867,7 @@
         <v>154</v>
       </c>
       <c r="Y320" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Z320" s="2" t="s">
         <v>91</v>
@@ -29907,7 +29902,7 @@
         <v>33</v>
       </c>
       <c r="J321" s="5" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="K321" s="2" t="s">
         <v>49</v>
@@ -29916,7 +29911,7 @@
         <v>4</v>
       </c>
       <c r="M321" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="N321" s="2" t="s">
         <v>33</v>
@@ -29934,7 +29929,7 @@
         <v>4</v>
       </c>
       <c r="S321" s="2" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="T321" s="2" t="s">
         <v>33</v>
@@ -29987,7 +29982,7 @@
         <v>33</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="K322" s="2" t="s">
         <v>49</v>
@@ -29996,7 +29991,7 @@
         <v>4</v>
       </c>
       <c r="M322" s="2" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="N322" s="2" t="s">
         <v>49</v>
@@ -30005,7 +30000,7 @@
         <v>4</v>
       </c>
       <c r="P322" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Q322" s="2" t="s">
         <v>65</v>
@@ -30014,7 +30009,7 @@
         <v>3</v>
       </c>
       <c r="S322" s="2" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="T322" s="2" t="s">
         <v>98</v>
@@ -30032,7 +30027,7 @@
         <v>154</v>
       </c>
       <c r="Y322" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z322" s="2" t="s">
         <v>91</v>
@@ -30067,7 +30062,7 @@
         <v>51</v>
       </c>
       <c r="J323" s="5" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="K323" s="2" t="s">
         <v>51</v>
@@ -30076,7 +30071,7 @@
         <v>5</v>
       </c>
       <c r="M323" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N323" s="2" t="s">
         <v>51</v>
@@ -30094,7 +30089,7 @@
         <v>2</v>
       </c>
       <c r="S323" s="2" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="T323" s="2" t="s">
         <v>51</v>
@@ -30120,7 +30115,7 @@
     </row>
     <row r="324" spans="1:26" ht="13">
       <c r="A324" s="2" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>101</v>
@@ -30147,7 +30142,7 @@
         <v>68</v>
       </c>
       <c r="J324" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="K324" s="2" t="s">
         <v>51</v>
@@ -30156,7 +30151,7 @@
         <v>5</v>
       </c>
       <c r="M324" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N324" s="2" t="s">
         <v>131</v>
@@ -30165,7 +30160,7 @@
         <v>5</v>
       </c>
       <c r="P324" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="Q324" s="2" t="s">
         <v>95</v>
@@ -30174,7 +30169,7 @@
         <v>4</v>
       </c>
       <c r="S324" s="2" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="T324" s="2" t="s">
         <v>95</v>
@@ -30200,7 +30195,7 @@
     </row>
     <row r="325" spans="1:26" ht="13">
       <c r="A325" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>101</v>
@@ -30227,7 +30222,7 @@
         <v>49</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="K325" s="2" t="s">
         <v>68</v>
@@ -30236,7 +30231,7 @@
         <v>5</v>
       </c>
       <c r="M325" s="2" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="N325" s="2" t="s">
         <v>51</v>
@@ -30245,7 +30240,7 @@
         <v>5</v>
       </c>
       <c r="P325" s="2" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="Q325" s="2" t="s">
         <v>51</v>
@@ -30307,7 +30302,7 @@
         <v>63</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="K326" s="2" t="s">
         <v>51</v>
@@ -30316,7 +30311,7 @@
         <v>4</v>
       </c>
       <c r="M326" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="N326" s="2" t="s">
         <v>51</v>
@@ -30360,7 +30355,7 @@
     </row>
     <row r="327" spans="1:26" ht="13">
       <c r="A327" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>27</v>
@@ -30396,7 +30391,7 @@
         <v>5</v>
       </c>
       <c r="M327" s="2" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="N327" s="5" t="s">
         <v>33</v>
@@ -30414,7 +30409,7 @@
         <v>4</v>
       </c>
       <c r="S327" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="T327" s="5" t="s">
         <v>33</v>
@@ -30440,7 +30435,7 @@
     </row>
     <row r="328" spans="1:26" ht="13">
       <c r="A328" s="2" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>27</v>
@@ -30476,7 +30471,7 @@
         <v>5</v>
       </c>
       <c r="M328" s="2" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="N328" s="2" t="s">
         <v>49</v>
@@ -30485,7 +30480,7 @@
         <v>4</v>
       </c>
       <c r="P328" s="2" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="Q328" s="2" t="s">
         <v>65</v>
@@ -30494,7 +30489,7 @@
         <v>4</v>
       </c>
       <c r="S328" s="2" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="T328" s="2" t="s">
         <v>68</v>
@@ -30520,7 +30515,7 @@
     </row>
     <row r="329" spans="1:26" ht="13">
       <c r="A329" s="2" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>101</v>
@@ -30547,7 +30542,7 @@
         <v>63</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="K329" s="2" t="s">
         <v>68</v>
@@ -30556,7 +30551,7 @@
         <v>4</v>
       </c>
       <c r="M329" s="2" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="N329" s="2" t="s">
         <v>49</v>
@@ -30565,7 +30560,7 @@
         <v>4</v>
       </c>
       <c r="P329" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q329" s="2" t="s">
         <v>95</v>
@@ -30574,7 +30569,7 @@
         <v>4</v>
       </c>
       <c r="S329" s="2" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="T329" s="2" t="s">
         <v>68</v>
@@ -30600,7 +30595,7 @@
     </row>
     <row r="330" spans="1:26" ht="13">
       <c r="A330" s="2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>27</v>
@@ -30627,7 +30622,7 @@
         <v>63</v>
       </c>
       <c r="J330" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="K330" s="2" t="s">
         <v>105</v>
@@ -30645,7 +30640,7 @@
         <v>4</v>
       </c>
       <c r="P330" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="Q330" s="2" t="s">
         <v>65</v>
@@ -30654,7 +30649,7 @@
         <v>4</v>
       </c>
       <c r="S330" s="2" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="T330" s="2" t="s">
         <v>51</v>
@@ -30680,7 +30675,7 @@
     </row>
     <row r="331" spans="1:26" ht="13">
       <c r="A331" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>27</v>
@@ -30707,7 +30702,7 @@
         <v>49</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="K331" s="2" t="s">
         <v>49</v>
@@ -30716,7 +30711,7 @@
         <v>4</v>
       </c>
       <c r="M331" s="2" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="N331" s="2" t="s">
         <v>95</v>
@@ -30725,7 +30720,7 @@
         <v>4</v>
       </c>
       <c r="P331" s="2" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="Q331" s="2" t="s">
         <v>49</v>
@@ -30734,7 +30729,7 @@
         <v>4</v>
       </c>
       <c r="S331" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="T331" s="2" t="s">
         <v>95</v>
@@ -30752,7 +30747,7 @@
         <v>40</v>
       </c>
       <c r="Y331" s="2" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="Z331" s="2" t="s">
         <v>42</v>
@@ -30760,7 +30755,7 @@
     </row>
     <row r="332" spans="1:26" ht="13">
       <c r="A332" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>27</v>
@@ -30787,7 +30782,7 @@
         <v>63</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="K332" s="2" t="s">
         <v>65</v>
@@ -30796,7 +30791,7 @@
         <v>3</v>
       </c>
       <c r="M332" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="N332" s="2" t="s">
         <v>65</v>
@@ -30805,7 +30800,7 @@
         <v>3</v>
       </c>
       <c r="P332" s="2" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="Q332" s="2" t="s">
         <v>98</v>
@@ -30867,7 +30862,7 @@
         <v>124</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="K333" s="2" t="s">
         <v>65</v>
@@ -30876,7 +30871,7 @@
         <v>5</v>
       </c>
       <c r="M333" s="2" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="N333" s="2" t="s">
         <v>124</v>
@@ -30885,7 +30880,7 @@
         <v>4</v>
       </c>
       <c r="P333" s="2" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="Q333" s="2" t="s">
         <v>124</v>
@@ -30894,7 +30889,7 @@
         <v>3</v>
       </c>
       <c r="S333" s="2" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="T333" s="2" t="s">
         <v>68</v>
@@ -30920,7 +30915,7 @@
     </row>
     <row r="334" spans="1:26" ht="13">
       <c r="A334" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>27</v>
@@ -30947,7 +30942,7 @@
         <v>63</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="K334" s="2" t="s">
         <v>65</v>
@@ -30956,7 +30951,7 @@
         <v>3</v>
       </c>
       <c r="M334" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="N334" s="2" t="s">
         <v>95</v>
@@ -30965,7 +30960,7 @@
         <v>3</v>
       </c>
       <c r="P334" s="2" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="Q334" s="2" t="s">
         <v>65</v>
@@ -30974,7 +30969,7 @@
         <v>3</v>
       </c>
       <c r="S334" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T334" s="2" t="s">
         <v>98</v>
@@ -30992,7 +30987,7 @@
         <v>40</v>
       </c>
       <c r="Y334" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Z334" s="2" t="s">
         <v>57</v>
@@ -31000,7 +30995,7 @@
     </row>
     <row r="335" spans="1:26" ht="13">
       <c r="A335" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>27</v>
@@ -31036,7 +31031,7 @@
         <v>5</v>
       </c>
       <c r="M335" s="2" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="N335" s="2" t="s">
         <v>51</v>
@@ -31045,7 +31040,7 @@
         <v>3</v>
       </c>
       <c r="P335" s="2" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="Q335" s="2" t="s">
         <v>51</v>
@@ -31054,7 +31049,7 @@
         <v>4</v>
       </c>
       <c r="S335" s="2" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="T335" s="2" t="s">
         <v>37</v>
@@ -31107,7 +31102,7 @@
         <v>49</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K336" s="2" t="s">
         <v>98</v>
@@ -31134,7 +31129,7 @@
         <v>3</v>
       </c>
       <c r="S336" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="T336" s="2" t="s">
         <v>49</v>
@@ -31196,7 +31191,7 @@
         <v>4</v>
       </c>
       <c r="M337" s="2" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="N337" s="2" t="s">
         <v>68</v>
@@ -31214,7 +31209,7 @@
         <v>3</v>
       </c>
       <c r="S337" s="2" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="T337" s="5" t="s">
         <v>246</v>
@@ -31240,7 +31235,7 @@
     </row>
     <row r="338" spans="1:26" ht="13">
       <c r="A338" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>27</v>
@@ -31320,7 +31315,7 @@
     </row>
     <row r="339" spans="1:26" ht="13">
       <c r="A339" s="2" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>27</v>
@@ -31347,7 +31342,7 @@
         <v>33</v>
       </c>
       <c r="J339" s="2" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="K339" s="2" t="s">
         <v>49</v>
@@ -31365,7 +31360,7 @@
         <v>4</v>
       </c>
       <c r="P339" s="2" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="Q339" s="2" t="s">
         <v>65</v>
@@ -31374,7 +31369,7 @@
         <v>3</v>
       </c>
       <c r="S339" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="T339" s="2" t="s">
         <v>33</v>
@@ -31427,7 +31422,7 @@
         <v>49</v>
       </c>
       <c r="J340" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="K340" s="2" t="s">
         <v>37</v>
@@ -31436,7 +31431,7 @@
         <v>5</v>
       </c>
       <c r="M340" s="2" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="N340" s="2" t="s">
         <v>49</v>
@@ -31472,7 +31467,7 @@
         <v>28</v>
       </c>
       <c r="Y340" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="Z340" s="2" t="s">
         <v>81</v>
@@ -31480,7 +31475,7 @@
     </row>
     <row r="341" spans="1:26" ht="13">
       <c r="A341" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>27</v>
@@ -31507,7 +31502,7 @@
         <v>33</v>
       </c>
       <c r="J341" s="2" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="K341" s="2" t="s">
         <v>33</v>
@@ -31516,7 +31511,7 @@
         <v>4</v>
       </c>
       <c r="M341" s="2" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="N341" s="2" t="s">
         <v>33</v>
@@ -31525,7 +31520,7 @@
         <v>4</v>
       </c>
       <c r="P341" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="Q341" s="2" t="s">
         <v>49</v>
@@ -31534,7 +31529,7 @@
         <v>5</v>
       </c>
       <c r="S341" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="T341" s="2" t="s">
         <v>68</v>
@@ -31560,7 +31555,7 @@
     </row>
     <row r="342" spans="1:26" ht="13">
       <c r="A342" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>27</v>
@@ -31587,7 +31582,7 @@
         <v>63</v>
       </c>
       <c r="J342" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K342" s="2" t="s">
         <v>65</v>
@@ -31596,7 +31591,7 @@
         <v>3</v>
       </c>
       <c r="M342" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="N342" s="2" t="s">
         <v>65</v>
@@ -31605,7 +31600,7 @@
         <v>3</v>
       </c>
       <c r="P342" s="2" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="Q342" s="2" t="s">
         <v>65</v>
@@ -31614,7 +31609,7 @@
         <v>3</v>
       </c>
       <c r="S342" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="T342" s="2" t="s">
         <v>124</v>
@@ -31640,7 +31635,7 @@
     </row>
     <row r="343" spans="1:26" ht="13">
       <c r="A343" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>27</v>
@@ -31667,7 +31662,7 @@
         <v>51</v>
       </c>
       <c r="J343" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K343" s="2" t="s">
         <v>98</v>
@@ -31676,7 +31671,7 @@
         <v>4</v>
       </c>
       <c r="M343" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N343" s="2" t="s">
         <v>51</v>
@@ -31685,7 +31680,7 @@
         <v>4</v>
       </c>
       <c r="P343" s="2" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="Q343" s="2" t="s">
         <v>51</v>
@@ -31694,7 +31689,7 @@
         <v>4</v>
       </c>
       <c r="S343" s="2" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="T343" s="2" t="s">
         <v>33</v>
@@ -31712,7 +31707,7 @@
         <v>45</v>
       </c>
       <c r="Y343" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Z343" s="2" t="s">
         <v>42</v>
@@ -31720,7 +31715,7 @@
     </row>
     <row r="344" spans="1:26" ht="13">
       <c r="A344" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>27</v>
@@ -31747,7 +31742,7 @@
         <v>33</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="K344" s="2" t="s">
         <v>65</v>
@@ -31765,7 +31760,7 @@
         <v>3</v>
       </c>
       <c r="P344" s="2" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="Q344" s="2" t="s">
         <v>68</v>
@@ -31792,7 +31787,7 @@
         <v>89</v>
       </c>
       <c r="Y344" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="Z344" s="2" t="s">
         <v>42</v>
@@ -31800,7 +31795,7 @@
     </row>
     <row r="345" spans="1:26" ht="13">
       <c r="A345" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>27</v>
@@ -31836,7 +31831,7 @@
         <v>5</v>
       </c>
       <c r="M345" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="N345" s="2" t="s">
         <v>68</v>
@@ -31845,7 +31840,7 @@
         <v>4</v>
       </c>
       <c r="P345" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="Q345" s="2" t="s">
         <v>68</v>
@@ -31854,7 +31849,7 @@
         <v>4</v>
       </c>
       <c r="S345" s="2" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="T345" s="2" t="s">
         <v>98</v>
@@ -31880,7 +31875,7 @@
     </row>
     <row r="346" spans="1:26" ht="13">
       <c r="A346" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>27</v>
@@ -31907,7 +31902,7 @@
         <v>63</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="K346" s="2" t="s">
         <v>98</v>
@@ -31916,7 +31911,7 @@
         <v>5</v>
       </c>
       <c r="M346" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="N346" s="2" t="s">
         <v>105</v>
@@ -31925,7 +31920,7 @@
         <v>4</v>
       </c>
       <c r="P346" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Q346" s="2" t="s">
         <v>105</v>
@@ -31934,7 +31929,7 @@
         <v>4</v>
       </c>
       <c r="S346" s="2" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="T346" s="2" t="s">
         <v>68</v>
@@ -31960,7 +31955,7 @@
     </row>
     <row r="347" spans="1:26" ht="13">
       <c r="A347" s="2" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>27</v>
@@ -31987,7 +31982,7 @@
         <v>63</v>
       </c>
       <c r="J347" s="2" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="K347" s="2" t="s">
         <v>65</v>
@@ -31996,7 +31991,7 @@
         <v>5</v>
       </c>
       <c r="M347" s="2" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="N347" s="2" t="s">
         <v>65</v>
@@ -32005,7 +32000,7 @@
         <v>5</v>
       </c>
       <c r="P347" s="2" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="Q347" s="2" t="s">
         <v>95</v>
@@ -32040,7 +32035,7 @@
     </row>
     <row r="348" spans="1:26" ht="13">
       <c r="A348" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>27</v>
@@ -32067,7 +32062,7 @@
         <v>49</v>
       </c>
       <c r="J348" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K348" s="2" t="s">
         <v>49</v>
@@ -32076,7 +32071,7 @@
         <v>4</v>
       </c>
       <c r="M348" s="2" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="N348" s="2" t="s">
         <v>98</v>
@@ -32085,7 +32080,7 @@
         <v>3</v>
       </c>
       <c r="P348" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q348" s="2" t="s">
         <v>68</v>
@@ -32094,7 +32089,7 @@
         <v>3</v>
       </c>
       <c r="S348" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T348" s="2" t="s">
         <v>68</v>
@@ -32112,7 +32107,7 @@
         <v>71</v>
       </c>
       <c r="Y348" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="Z348" s="2" t="s">
         <v>91</v>
@@ -32120,7 +32115,7 @@
     </row>
     <row r="349" spans="1:26" ht="13">
       <c r="A349" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>101</v>
@@ -32147,7 +32142,7 @@
         <v>63</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K349" s="2" t="s">
         <v>65</v>
@@ -32156,7 +32151,7 @@
         <v>4</v>
       </c>
       <c r="M349" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N349" s="2" t="s">
         <v>65</v>
@@ -32165,7 +32160,7 @@
         <v>4</v>
       </c>
       <c r="P349" s="2" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="Q349" s="2" t="s">
         <v>68</v>
@@ -32174,7 +32169,7 @@
         <v>4</v>
       </c>
       <c r="S349" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="T349" s="2" t="s">
         <v>68</v>
@@ -32192,7 +32187,7 @@
         <v>28</v>
       </c>
       <c r="Y349" s="5" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="Z349" s="2" t="s">
         <v>57</v>
@@ -32334,7 +32329,7 @@
         <v>4</v>
       </c>
       <c r="S351" s="2" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="T351" s="2" t="s">
         <v>49</v>
@@ -32360,7 +32355,7 @@
     </row>
     <row r="352" spans="1:26" ht="13">
       <c r="A352" s="2" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>27</v>
@@ -32396,7 +32391,7 @@
         <v>3</v>
       </c>
       <c r="M352" s="2" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="N352" s="2" t="s">
         <v>33</v>
@@ -32440,7 +32435,7 @@
     </row>
     <row r="353" spans="1:26" ht="13">
       <c r="A353" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>27</v>
@@ -32467,7 +32462,7 @@
         <v>68</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K353" s="2" t="s">
         <v>98</v>
@@ -32476,7 +32471,7 @@
         <v>5</v>
       </c>
       <c r="M353" s="2" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="N353" s="2" t="s">
         <v>68</v>
@@ -32485,7 +32480,7 @@
         <v>4</v>
       </c>
       <c r="P353" s="2" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="Q353" s="2" t="s">
         <v>49</v>
@@ -32494,7 +32489,7 @@
         <v>3</v>
       </c>
       <c r="S353" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="T353" s="2" t="s">
         <v>68</v>
@@ -32512,7 +32507,7 @@
         <v>237</v>
       </c>
       <c r="Y353" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="Z353" s="2" t="s">
         <v>81</v>
@@ -32565,7 +32560,7 @@
         <v>3</v>
       </c>
       <c r="P354" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Q354" s="2" t="s">
         <v>68</v>
@@ -32574,7 +32569,7 @@
         <v>3</v>
       </c>
       <c r="S354" s="2" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="T354" s="2" t="s">
         <v>49</v>
@@ -32680,7 +32675,7 @@
     </row>
     <row r="356" spans="1:26" ht="13">
       <c r="A356" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>101</v>
@@ -32707,7 +32702,7 @@
         <v>63</v>
       </c>
       <c r="J356" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K356" s="2" t="s">
         <v>65</v>
@@ -32716,7 +32711,7 @@
         <v>3</v>
       </c>
       <c r="M356" s="2" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="N356" s="2" t="s">
         <v>124</v>
@@ -32725,7 +32720,7 @@
         <v>4</v>
       </c>
       <c r="P356" s="2" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="Q356" s="2" t="s">
         <v>37</v>
@@ -32734,7 +32729,7 @@
         <v>4</v>
       </c>
       <c r="S356" s="2" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="T356" s="2" t="s">
         <v>68</v>
@@ -32796,7 +32791,7 @@
         <v>5</v>
       </c>
       <c r="M357" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="N357" s="2" t="s">
         <v>49</v>
@@ -32867,7 +32862,7 @@
         <v>49</v>
       </c>
       <c r="J358" s="2" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="K358" s="2" t="s">
         <v>124</v>
@@ -32885,7 +32880,7 @@
         <v>3</v>
       </c>
       <c r="P358" s="2" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="Q358" s="2" t="s">
         <v>124</v>
@@ -32894,7 +32889,7 @@
         <v>3</v>
       </c>
       <c r="S358" s="2" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="T358" s="2" t="s">
         <v>124</v>
@@ -32912,7 +32907,7 @@
         <v>40</v>
       </c>
       <c r="Y358" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Z358" s="2" t="s">
         <v>73</v>
@@ -32920,7 +32915,7 @@
     </row>
     <row r="359" spans="1:26" ht="13">
       <c r="A359" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>27</v>
@@ -32956,7 +32951,7 @@
         <v>3</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N359" s="2" t="s">
         <v>105</v>
@@ -32965,7 +32960,7 @@
         <v>3</v>
       </c>
       <c r="P359" s="2" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="Q359" s="2" t="s">
         <v>65</v>
@@ -32974,7 +32969,7 @@
         <v>3</v>
       </c>
       <c r="S359" s="2" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="T359" s="2" t="s">
         <v>65</v>
@@ -33045,7 +33040,7 @@
         <v>3</v>
       </c>
       <c r="P360" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q360" s="2" t="s">
         <v>33</v>
@@ -33107,7 +33102,7 @@
         <v>49</v>
       </c>
       <c r="J361" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="K361" s="2" t="s">
         <v>49</v>
@@ -33134,7 +33129,7 @@
         <v>2</v>
       </c>
       <c r="S361" s="2" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="T361" s="2" t="s">
         <v>68</v>
@@ -33187,7 +33182,7 @@
         <v>63</v>
       </c>
       <c r="J362" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="K362" s="2" t="s">
         <v>65</v>
@@ -33214,7 +33209,7 @@
         <v>4</v>
       </c>
       <c r="S362" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="T362" s="2" t="s">
         <v>95</v>
@@ -33232,7 +33227,7 @@
         <v>71</v>
       </c>
       <c r="Y362" s="5" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="Z362" s="2" t="s">
         <v>57</v>
@@ -33267,7 +33262,7 @@
         <v>63</v>
       </c>
       <c r="J363" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="K363" s="2" t="s">
         <v>65</v>
@@ -33276,7 +33271,7 @@
         <v>4</v>
       </c>
       <c r="M363" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="N363" s="2" t="s">
         <v>65</v>
@@ -33285,7 +33280,7 @@
         <v>4</v>
       </c>
       <c r="P363" s="2" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="Q363" s="2" t="s">
         <v>124</v>
@@ -33294,7 +33289,7 @@
         <v>2</v>
       </c>
       <c r="S363" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="T363" s="2" t="s">
         <v>98</v>
@@ -33312,7 +33307,7 @@
         <v>154</v>
       </c>
       <c r="Y363" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="Z363" s="2" t="s">
         <v>42</v>
@@ -33347,7 +33342,7 @@
         <v>68</v>
       </c>
       <c r="J364" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K364" s="2" t="s">
         <v>68</v>
@@ -33356,7 +33351,7 @@
         <v>5</v>
       </c>
       <c r="M364" s="2" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="N364" s="2" t="s">
         <v>68</v>
@@ -33365,7 +33360,7 @@
         <v>3</v>
       </c>
       <c r="P364" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Q364" s="2" t="s">
         <v>68</v>
@@ -33374,7 +33369,7 @@
         <v>4</v>
       </c>
       <c r="S364" s="2" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="T364" s="2" t="s">
         <v>68</v>
@@ -33392,7 +33387,7 @@
         <v>230</v>
       </c>
       <c r="Y364" s="2" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="Z364" s="2" t="s">
         <v>57</v>
@@ -33400,7 +33395,7 @@
     </row>
     <row r="365" spans="1:26" ht="13">
       <c r="A365" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>101</v>
@@ -33427,7 +33422,7 @@
         <v>68</v>
       </c>
       <c r="J365" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K365" s="2" t="s">
         <v>68</v>
@@ -33436,7 +33431,7 @@
         <v>4</v>
       </c>
       <c r="M365" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N365" s="2" t="s">
         <v>68</v>
@@ -33445,7 +33440,7 @@
         <v>3</v>
       </c>
       <c r="P365" s="2" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="Q365" s="2" t="s">
         <v>98</v>
@@ -33472,7 +33467,7 @@
         <v>28</v>
       </c>
       <c r="Y365" s="5" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="Z365" s="2" t="s">
         <v>57</v>
@@ -33480,7 +33475,7 @@
     </row>
     <row r="366" spans="1:26" ht="13">
       <c r="A366" s="2" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>27</v>
@@ -33507,7 +33502,7 @@
         <v>68</v>
       </c>
       <c r="J366" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="K366" s="2" t="s">
         <v>68</v>
@@ -33516,7 +33511,7 @@
         <v>5</v>
       </c>
       <c r="M366" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="N366" s="2" t="s">
         <v>68</v>
@@ -33525,7 +33520,7 @@
         <v>4</v>
       </c>
       <c r="P366" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="Q366" s="2" t="s">
         <v>68</v>
@@ -33534,7 +33529,7 @@
         <v>5</v>
       </c>
       <c r="S366" s="2" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="T366" s="2" t="s">
         <v>65</v>
@@ -33560,7 +33555,7 @@
     </row>
     <row r="367" spans="1:26" ht="13">
       <c r="A367" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>27</v>
@@ -33587,7 +33582,7 @@
         <v>33</v>
       </c>
       <c r="J367" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K367" s="2" t="s">
         <v>105</v>
@@ -33605,7 +33600,7 @@
         <v>2</v>
       </c>
       <c r="P367" s="2" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="Q367" s="2" t="s">
         <v>33</v>
@@ -33614,7 +33609,7 @@
         <v>4</v>
       </c>
       <c r="S367" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="T367" s="2" t="s">
         <v>33</v>
@@ -33632,7 +33627,7 @@
         <v>230</v>
       </c>
       <c r="Y367" s="2" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="Z367" s="2" t="s">
         <v>91</v>
@@ -33640,7 +33635,7 @@
     </row>
     <row r="368" spans="1:26" ht="13">
       <c r="A368" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>27</v>
@@ -33667,7 +33662,7 @@
         <v>63</v>
       </c>
       <c r="J368" s="2" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="K368" s="2" t="s">
         <v>65</v>
@@ -33676,7 +33671,7 @@
         <v>4</v>
       </c>
       <c r="M368" s="2" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="N368" s="2" t="s">
         <v>131</v>
@@ -33685,7 +33680,7 @@
         <v>4</v>
       </c>
       <c r="P368" s="2" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="Q368" s="2" t="s">
         <v>65</v>
@@ -33694,7 +33689,7 @@
         <v>2</v>
       </c>
       <c r="S368" s="2" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="T368" s="2" t="s">
         <v>65</v>
@@ -33720,7 +33715,7 @@
     </row>
     <row r="369" spans="1:26" ht="13">
       <c r="A369" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>27</v>
@@ -33747,7 +33742,7 @@
         <v>63</v>
       </c>
       <c r="J369" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K369" s="2" t="s">
         <v>65</v>
@@ -33765,7 +33760,7 @@
         <v>5</v>
       </c>
       <c r="P369" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Q369" s="2" t="s">
         <v>68</v>
@@ -33774,7 +33769,7 @@
         <v>4</v>
       </c>
       <c r="S369" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T369" s="2" t="s">
         <v>68</v>
@@ -33792,7 +33787,7 @@
         <v>28</v>
       </c>
       <c r="Y369" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Z369" s="2" t="s">
         <v>81</v>
@@ -33836,7 +33831,7 @@
         <v>5</v>
       </c>
       <c r="M370" s="2" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="N370" s="2" t="s">
         <v>131</v>
@@ -33845,7 +33840,7 @@
         <v>4</v>
       </c>
       <c r="P370" s="2" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="Q370" s="2" t="s">
         <v>131</v>
@@ -33854,7 +33849,7 @@
         <v>3</v>
       </c>
       <c r="S370" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="T370" s="2" t="s">
         <v>131</v>
@@ -33880,7 +33875,7 @@
     </row>
     <row r="371" spans="1:26" ht="13">
       <c r="A371" s="2" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>27</v>
@@ -33916,7 +33911,7 @@
         <v>3</v>
       </c>
       <c r="M371" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="N371" s="2" t="s">
         <v>51</v>
@@ -33925,7 +33920,7 @@
         <v>3</v>
       </c>
       <c r="P371" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="Q371" s="2" t="s">
         <v>51</v>
@@ -33934,7 +33929,7 @@
         <v>2</v>
       </c>
       <c r="S371" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="T371" s="2" t="s">
         <v>98</v>
@@ -33943,7 +33938,7 @@
         <v>4</v>
       </c>
       <c r="V371" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="W371" s="7">
         <v>0</v>
@@ -33952,7 +33947,7 @@
         <v>45</v>
       </c>
       <c r="Y371" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z371" s="2" t="s">
         <v>57</v>
@@ -33960,7 +33955,7 @@
     </row>
     <row r="372" spans="1:26" ht="13">
       <c r="A372" s="2" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>27</v>
@@ -33996,7 +33991,7 @@
         <v>4</v>
       </c>
       <c r="M372" s="2" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="N372" s="2" t="s">
         <v>98</v>
@@ -34005,7 +34000,7 @@
         <v>5</v>
       </c>
       <c r="P372" s="2" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="Q372" s="2" t="s">
         <v>68</v>
@@ -34014,7 +34009,7 @@
         <v>3</v>
       </c>
       <c r="S372" s="2" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="T372" s="2" t="s">
         <v>49</v>
@@ -34076,7 +34071,7 @@
         <v>5</v>
       </c>
       <c r="M373" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N373" s="2" t="s">
         <v>51</v>
@@ -34200,7 +34195,7 @@
     </row>
     <row r="375" spans="1:26" ht="13">
       <c r="A375" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>27</v>
@@ -34236,7 +34231,7 @@
         <v>3</v>
       </c>
       <c r="M375" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="N375" s="2" t="s">
         <v>65</v>
@@ -34245,7 +34240,7 @@
         <v>3</v>
       </c>
       <c r="P375" s="2" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="Q375" s="2" t="s">
         <v>65</v>
@@ -34254,7 +34249,7 @@
         <v>3</v>
       </c>
       <c r="S375" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T375" s="2" t="s">
         <v>98</v>
@@ -34307,7 +34302,7 @@
         <v>33</v>
       </c>
       <c r="J376" s="2" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="K376" s="2" t="s">
         <v>51</v>
@@ -34316,7 +34311,7 @@
         <v>4</v>
       </c>
       <c r="M376" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="N376" s="2" t="s">
         <v>33</v>
@@ -34325,7 +34320,7 @@
         <v>4</v>
       </c>
       <c r="P376" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="Q376" s="2" t="s">
         <v>33</v>
@@ -34334,7 +34329,7 @@
         <v>4</v>
       </c>
       <c r="S376" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="T376" s="2" t="s">
         <v>68</v>
@@ -34352,7 +34347,7 @@
         <v>237</v>
       </c>
       <c r="Y376" s="2" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="Z376" s="2" t="s">
         <v>57</v>
@@ -34360,7 +34355,7 @@
     </row>
     <row r="377" spans="1:26" ht="13">
       <c r="A377" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>27</v>
@@ -34387,7 +34382,7 @@
         <v>68</v>
       </c>
       <c r="J377" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K377" s="2" t="s">
         <v>37</v>
@@ -34396,7 +34391,7 @@
         <v>3</v>
       </c>
       <c r="M377" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="N377" s="2" t="s">
         <v>49</v>
@@ -34405,7 +34400,7 @@
         <v>3</v>
       </c>
       <c r="P377" s="2" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="Q377" s="2" t="s">
         <v>49</v>
@@ -34414,7 +34409,7 @@
         <v>3</v>
       </c>
       <c r="S377" s="2" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="T377" s="2" t="s">
         <v>68</v>
@@ -34432,7 +34427,7 @@
         <v>154</v>
       </c>
       <c r="Y377" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z377" s="2" t="s">
         <v>91</v>
@@ -34440,7 +34435,7 @@
     </row>
     <row r="378" spans="1:26" ht="13">
       <c r="A378" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>27</v>
@@ -34467,7 +34462,7 @@
         <v>63</v>
       </c>
       <c r="J378" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K378" s="2" t="s">
         <v>49</v>
@@ -34476,7 +34471,7 @@
         <v>5</v>
       </c>
       <c r="M378" s="2" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="N378" s="2" t="s">
         <v>68</v>
@@ -34485,7 +34480,7 @@
         <v>5</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="Q378" s="2" t="s">
         <v>33</v>
@@ -34494,7 +34489,7 @@
         <v>4</v>
       </c>
       <c r="S378" s="5" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="T378" s="2" t="s">
         <v>95</v>
@@ -34512,7 +34507,7 @@
         <v>28</v>
       </c>
       <c r="Y378" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Z378" s="2" t="s">
         <v>42</v>
@@ -34520,7 +34515,7 @@
     </row>
     <row r="379" spans="1:26" ht="13">
       <c r="A379" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>27</v>
@@ -34535,7 +34530,7 @@
         <v>46</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="G379" s="2" t="s">
         <v>221</v>
@@ -34547,7 +34542,7 @@
         <v>124</v>
       </c>
       <c r="J379" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K379" s="2" t="s">
         <v>124</v>
@@ -34556,7 +34551,7 @@
         <v>3</v>
       </c>
       <c r="M379" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="N379" s="2" t="s">
         <v>37</v>
@@ -34565,7 +34560,7 @@
         <v>4</v>
       </c>
       <c r="P379" s="2" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="Q379" s="2" t="s">
         <v>131</v>
@@ -34574,7 +34569,7 @@
         <v>4</v>
       </c>
       <c r="S379" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="T379" s="2" t="s">
         <v>131</v>
@@ -34592,7 +34587,7 @@
         <v>45</v>
       </c>
       <c r="Y379" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="Z379" s="2" t="s">
         <v>73</v>
@@ -34600,13 +34595,13 @@
     </row>
     <row r="380" spans="1:26" ht="13">
       <c r="A380" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>60</v>
@@ -34627,7 +34622,7 @@
         <v>68</v>
       </c>
       <c r="J380" s="2" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="K380" s="2" t="s">
         <v>95</v>
@@ -34636,7 +34631,7 @@
         <v>5</v>
       </c>
       <c r="M380" s="2" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="N380" s="2" t="s">
         <v>68</v>
@@ -34654,7 +34649,7 @@
         <v>3</v>
       </c>
       <c r="S380" s="2" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="T380" s="2" t="s">
         <v>95</v>
@@ -34680,7 +34675,7 @@
     </row>
     <row r="381" spans="1:26" ht="13">
       <c r="A381" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>27</v>
@@ -34707,7 +34702,7 @@
         <v>49</v>
       </c>
       <c r="J381" s="2" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="K381" s="2" t="s">
         <v>49</v>
@@ -34716,7 +34711,7 @@
         <v>5</v>
       </c>
       <c r="M381" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="N381" s="2" t="s">
         <v>49</v>
@@ -34796,7 +34791,7 @@
         <v>4</v>
       </c>
       <c r="M382" s="2" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="N382" s="2" t="s">
         <v>65</v>
@@ -34814,7 +34809,7 @@
         <v>4</v>
       </c>
       <c r="S382" s="2" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="T382" s="2" t="s">
         <v>124</v>
@@ -34867,7 +34862,7 @@
         <v>51</v>
       </c>
       <c r="J383" s="2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="K383" s="2" t="s">
         <v>51</v>
@@ -34885,7 +34880,7 @@
         <v>5</v>
       </c>
       <c r="P383" s="2" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="Q383" s="2" t="s">
         <v>51</v>
@@ -34920,13 +34915,13 @@
     </row>
     <row r="384" spans="1:26" ht="13">
       <c r="A384" s="2" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>45</v>
@@ -34947,7 +34942,7 @@
         <v>68</v>
       </c>
       <c r="J384" s="2" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="K384" s="2" t="s">
         <v>98</v>
@@ -34956,7 +34951,7 @@
         <v>3</v>
       </c>
       <c r="M384" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="N384" s="2" t="s">
         <v>68</v>
@@ -34965,7 +34960,7 @@
         <v>3</v>
       </c>
       <c r="P384" s="2" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="Q384" s="2" t="s">
         <v>49</v>
@@ -34974,7 +34969,7 @@
         <v>4</v>
       </c>
       <c r="S384" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="T384" s="2" t="s">
         <v>68</v>
@@ -35027,7 +35022,7 @@
         <v>68</v>
       </c>
       <c r="J385" s="2" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="K385" s="2" t="s">
         <v>95</v>
@@ -35036,7 +35031,7 @@
         <v>4</v>
       </c>
       <c r="M385" s="2" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="N385" s="2" t="s">
         <v>95</v>
@@ -35054,7 +35049,7 @@
         <v>4</v>
       </c>
       <c r="S385" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="T385" s="5" t="s">
         <v>98</v>
@@ -35080,7 +35075,7 @@
     </row>
     <row r="386" spans="1:26" ht="13">
       <c r="A386" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>27</v>
@@ -35107,7 +35102,7 @@
         <v>68</v>
       </c>
       <c r="J386" s="2" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="K386" s="2" t="s">
         <v>49</v>
@@ -35116,7 +35111,7 @@
         <v>4</v>
       </c>
       <c r="M386" s="2" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="N386" s="2" t="s">
         <v>98</v>
@@ -35125,7 +35120,7 @@
         <v>4</v>
       </c>
       <c r="P386" s="2" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="Q386" s="2" t="s">
         <v>131</v>
@@ -35134,7 +35129,7 @@
         <v>3</v>
       </c>
       <c r="S386" s="2" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="T386" s="2" t="s">
         <v>68</v>
@@ -35152,7 +35147,7 @@
         <v>40</v>
       </c>
       <c r="Y386" s="2" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="Z386" s="2" t="s">
         <v>57</v>
@@ -35160,7 +35155,7 @@
     </row>
     <row r="387" spans="1:26" ht="13">
       <c r="A387" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>101</v>
@@ -35196,7 +35191,7 @@
         <v>4</v>
       </c>
       <c r="M387" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N387" s="2" t="s">
         <v>37</v>
@@ -35205,7 +35200,7 @@
         <v>4</v>
       </c>
       <c r="P387" s="2" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="Q387" s="2" t="s">
         <v>98</v>
@@ -35214,7 +35209,7 @@
         <v>3</v>
       </c>
       <c r="S387" s="2" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="T387" s="2" t="s">
         <v>105</v>
@@ -35240,7 +35235,7 @@
     </row>
     <row r="388" spans="1:26" ht="13">
       <c r="A388" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>27</v>
@@ -35267,7 +35262,7 @@
         <v>68</v>
       </c>
       <c r="J388" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="K388" s="2" t="s">
         <v>131</v>
@@ -35276,7 +35271,7 @@
         <v>3</v>
       </c>
       <c r="M388" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N388" s="2" t="s">
         <v>33</v>
@@ -35285,7 +35280,7 @@
         <v>3</v>
       </c>
       <c r="P388" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q388" s="2" t="s">
         <v>68</v>
@@ -35312,7 +35307,7 @@
         <v>28</v>
       </c>
       <c r="Y388" s="2" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="Z388" s="2" t="s">
         <v>57</v>
@@ -35320,7 +35315,7 @@
     </row>
     <row r="389" spans="1:26" ht="13">
       <c r="A389" s="2" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>27</v>
@@ -35347,7 +35342,7 @@
         <v>124</v>
       </c>
       <c r="J389" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K389" s="2" t="s">
         <v>124</v>
@@ -35365,7 +35360,7 @@
         <v>3</v>
       </c>
       <c r="P389" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q389" s="2" t="s">
         <v>37</v>
@@ -35436,7 +35431,7 @@
         <v>4</v>
       </c>
       <c r="M390" s="2" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="N390" s="2" t="s">
         <v>33</v>
@@ -35445,7 +35440,7 @@
         <v>4</v>
       </c>
       <c r="P390" s="2" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="Q390" s="2" t="s">
         <v>68</v>
@@ -35480,7 +35475,7 @@
     </row>
     <row r="391" spans="1:26" ht="13">
       <c r="A391" s="2" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>27</v>
@@ -35507,7 +35502,7 @@
         <v>51</v>
       </c>
       <c r="J391" s="2" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="K391" s="2" t="s">
         <v>51</v>
@@ -35516,7 +35511,7 @@
         <v>4</v>
       </c>
       <c r="M391" s="2" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="N391" s="2" t="s">
         <v>95</v>
@@ -35525,7 +35520,7 @@
         <v>2</v>
       </c>
       <c r="P391" s="2" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="Q391" s="2" t="s">
         <v>51</v>
@@ -35534,7 +35529,7 @@
         <v>2</v>
       </c>
       <c r="S391" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T391" s="2" t="s">
         <v>95</v>
@@ -35552,7 +35547,7 @@
         <v>45</v>
       </c>
       <c r="Y391" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Z391" s="2" t="s">
         <v>73</v>
@@ -35560,7 +35555,7 @@
     </row>
     <row r="392" spans="1:26" ht="13">
       <c r="A392" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>27</v>
@@ -35587,7 +35582,7 @@
         <v>49</v>
       </c>
       <c r="J392" s="2" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="K392" s="2" t="s">
         <v>98</v>
@@ -35596,7 +35591,7 @@
         <v>4</v>
       </c>
       <c r="M392" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="N392" s="2" t="s">
         <v>124</v>
@@ -35605,7 +35600,7 @@
         <v>4</v>
       </c>
       <c r="P392" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="Q392" s="2" t="s">
         <v>95</v>
@@ -35614,7 +35609,7 @@
         <v>4</v>
       </c>
       <c r="S392" s="2" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="T392" s="2" t="s">
         <v>124</v>
@@ -35632,7 +35627,7 @@
         <v>154</v>
       </c>
       <c r="Y392" s="2" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="Z392" s="2" t="s">
         <v>42</v>
@@ -35640,7 +35635,7 @@
     </row>
     <row r="393" spans="1:26" ht="13">
       <c r="A393" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>101</v>
@@ -35676,7 +35671,7 @@
         <v>5</v>
       </c>
       <c r="M393" s="2" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="N393" s="2" t="s">
         <v>65</v>
@@ -35685,7 +35680,7 @@
         <v>4</v>
       </c>
       <c r="P393" s="2" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="Q393" s="2" t="s">
         <v>98</v>
@@ -35694,7 +35689,7 @@
         <v>4</v>
       </c>
       <c r="S393" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="T393" s="2" t="s">
         <v>98</v>
@@ -35720,7 +35715,7 @@
     </row>
     <row r="394" spans="1:26" ht="13">
       <c r="A394" s="2" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>27</v>
@@ -35756,7 +35751,7 @@
         <v>4</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="N394" s="2" t="s">
         <v>124</v>
@@ -35765,7 +35760,7 @@
         <v>4</v>
       </c>
       <c r="P394" s="2" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="Q394" s="2" t="s">
         <v>124</v>
@@ -35774,7 +35769,7 @@
         <v>3</v>
       </c>
       <c r="S394" s="2" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="T394" s="2" t="s">
         <v>37</v>
@@ -35792,7 +35787,7 @@
         <v>45</v>
       </c>
       <c r="Y394" s="2" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="Z394" s="2" t="s">
         <v>42</v>
